--- a/DataFraIT.xlsx
+++ b/DataFraIT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="0" windowWidth="21260" windowHeight="15480" tabRatio="500"/>
@@ -345,8 +345,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -416,8 +416,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,17 +454,17 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -478,6 +480,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -493,6 +496,7 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -919,11 +923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119573352"/>
-        <c:axId val="-2121419912"/>
+        <c:axId val="2021737800"/>
+        <c:axId val="2021740776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119573352"/>
+        <c:axId val="2021737800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121419912"/>
+        <c:crossAx val="2021740776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121419912"/>
+        <c:axId val="2021740776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119573352"/>
+        <c:crossAx val="2021737800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125610056"/>
-        <c:axId val="-2125534376"/>
+        <c:axId val="2106115144"/>
+        <c:axId val="2106118120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125610056"/>
+        <c:axId val="2106115144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125534376"/>
+        <c:crossAx val="2106118120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1413,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125534376"/>
+        <c:axId val="2106118120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125610056"/>
+        <c:crossAx val="2106115144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1865,11 +1869,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119106648"/>
-        <c:axId val="-2117040696"/>
+        <c:axId val="2106148904"/>
+        <c:axId val="2106151880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119106648"/>
+        <c:axId val="2106148904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117040696"/>
+        <c:crossAx val="2106151880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1886,7 +1890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117040696"/>
+        <c:axId val="2106151880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119106648"/>
+        <c:crossAx val="2106148904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2145,11 +2149,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120329800"/>
-        <c:axId val="-2118832296"/>
+        <c:axId val="2106986616"/>
+        <c:axId val="2106993448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120329800"/>
+        <c:axId val="2106986616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2181,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118832296"/>
+        <c:crossAx val="2106993448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2185,7 +2189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118832296"/>
+        <c:axId val="2106993448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120329800"/>
+        <c:crossAx val="2106986616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,13 +2295,13 @@
                   <c:v>17.62721738532533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.44795052196296</c:v>
+                  <c:v>16.28478985691131</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>18.15347989814754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.11364501618806</c:v>
+                  <c:v>15.90448341695731</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.28628658105466</c:v>
@@ -2324,13 +2328,13 @@
                   <c:v>13.28972177003508</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.9882750600908</c:v>
+                  <c:v>12.49113121075135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.95430460875587</c:v>
+                  <c:v>12.57549446491069</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88960958764118</c:v>
+                  <c:v>10.92213013945278</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12.22645147401472</c:v>
@@ -2339,22 +2343,22 @@
                   <c:v>13.20114392939637</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.436205550799247</c:v>
+                  <c:v>11.85618103565691</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.024789347616067</c:v>
+                  <c:v>11.82584448620051</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.5607803242634</c:v>
+                  <c:v>11.94439302490516</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.919061474516008</c:v>
+                  <c:v>11.74762785144862</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.22582012945447</c:v>
+                  <c:v>14.18785815380917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.32981755571209</c:v>
+                  <c:v>14.08018847017193</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>12.45279802179826</c:v>
@@ -2363,10 +2367,10 @@
                   <c:v>12.26148666361981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.864627706768993</c:v>
+                  <c:v>13.32541728083692</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.50344105745048</c:v>
+                  <c:v>13.37744499534921</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>13.18698765189283</c:v>
@@ -2511,11 +2515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107992968"/>
-        <c:axId val="-2108090712"/>
+        <c:axId val="2107030744"/>
+        <c:axId val="2107033720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107992968"/>
+        <c:axId val="2107030744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108090712"/>
+        <c:crossAx val="2107033720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108090712"/>
+        <c:axId val="2107033720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107992968"/>
+        <c:crossAx val="2107030744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,11 +2843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114395912"/>
-        <c:axId val="-2114195848"/>
+        <c:axId val="2107060632"/>
+        <c:axId val="2107063608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114395912"/>
+        <c:axId val="2107060632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114195848"/>
+        <c:crossAx val="2107063608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114195848"/>
+        <c:axId val="2107063608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114395912"/>
+        <c:crossAx val="2107060632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2988,11 +2992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114792728"/>
-        <c:axId val="-2112245448"/>
+        <c:axId val="2107086680"/>
+        <c:axId val="2107089624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114792728"/>
+        <c:axId val="2107086680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +3005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112245448"/>
+        <c:crossAx val="2107089624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3009,7 +3013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112245448"/>
+        <c:axId val="2107089624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114792728"/>
+        <c:crossAx val="2107086680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3438,11 +3442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2111909432"/>
-        <c:axId val="-2112466232"/>
+        <c:axId val="2107119528"/>
+        <c:axId val="2107122504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2111909432"/>
+        <c:axId val="2107119528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,7 +3455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112466232"/>
+        <c:crossAx val="2107122504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3459,7 +3463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112466232"/>
+        <c:axId val="2107122504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +3474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111909432"/>
+        <c:crossAx val="2107119528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4061,9 +4065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4176,11 +4180,11 @@
         <v>5.7401822222221899E-2</v>
       </c>
       <c r="I2" s="2">
-        <f>H2+3*G2*1.66</f>
+        <f>ABS(H2)+3*G2*1.66</f>
         <v>0.12819274447237011</v>
       </c>
       <c r="J2" s="3">
-        <f>5*LOG(2*ABS(I2)*1000/(0.45*ABS(D2)^(1/3)+0.001*ABS(D2)),10)+1</f>
+        <f t="shared" ref="J2:J36" si="0">5*LOG(2*ABS(I2)*1000/(0.45*ABS(D2)^(1/3)+0.001*ABS(D2)),10)+1</f>
         <v>14.003004443539341</v>
       </c>
       <c r="K2" s="3">
@@ -4216,11 +4220,11 @@
         <v>0.10153395817892252</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:Y17" si="0">R2+3*M2*1.66</f>
+        <f t="shared" ref="X2:Y17" si="1">R2+3*M2*1.66</f>
         <v>0.1240491996550102</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11451614187903297</v>
       </c>
       <c r="AA2">
@@ -4228,11 +4232,11 @@
         <v>13.496743801211975</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AC2" si="1">5*LOG(2*ABS(X2)*1000/(0.45*ABS($D2)^(1/3)+0.001*ABS($D2)),10)+1</f>
+        <f t="shared" ref="AB2:AC2" si="2">5*LOG(2*ABS(X2)*1000/(0.45*ABS($D2)^(1/3)+0.001*ABS($D2)),10)+1</f>
         <v>13.931657049512111</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.758020756114458</v>
       </c>
       <c r="AG2">
@@ -4275,15 +4279,15 @@
         <v>5.2404688888889162E-2</v>
       </c>
       <c r="I3" s="2">
-        <f>H3+3*G3*1.66</f>
+        <f t="shared" ref="I3:I36" si="3">ABS(H3)+3*G3*1.66</f>
         <v>8.2934546628224221E-2</v>
       </c>
       <c r="J3" s="3">
-        <f>5*LOG(2*ABS(I3)*1000/(0.45*ABS(D3)^(1/3)+0.001*ABS(D3)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>13.057364590794622</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K36" si="2">5*LOG(2*ABS(E3)*1000/(0.45*ABS(D3)^(1/3)+0.001*ABS(D3)),10)+1</f>
+        <f t="shared" ref="K3:K36" si="4">5*LOG(2*ABS(E3)*1000/(0.45*ABS(D3)^(1/3)+0.001*ABS(D3)),10)+1</f>
         <v>11.473987173047661</v>
       </c>
       <c r="L3">
@@ -4311,35 +4315,35 @@
         <v>5.3313058333333441E-2</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W36" si="3">Q3+3*L3*1.66</f>
+        <f t="shared" ref="W3:W36" si="5">Q3+3*L3*1.66</f>
         <v>8.9971509680051034E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5101999855601814E-2</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1400930868067059E-2</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA36" si="4">5*LOG(2*ABS(W3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
+        <f t="shared" ref="AA3:AA36" si="6">5*LOG(2*ABS(W3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
         <v>13.234212255405712</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB36" si="5">5*LOG(2*ABS(X3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
+        <f t="shared" ref="AB3:AB36" si="7">5*LOG(2*ABS(X3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
         <v>12.841944725309421</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC36" si="6">5*LOG(2*ABS(Y3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
+        <f t="shared" ref="AC3:AC36" si="8">5*LOG(2*ABS(Y3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
         <v>13.016834073074579</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG36" si="7">L3-N3</f>
+        <f t="shared" ref="AG3:AG36" si="9">L3-N3</f>
         <v>2.2863829609070336E-3</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH36" si="8">M3-N3</f>
+        <f t="shared" ref="AH3:AH36" si="10">M3-N3</f>
         <v>-1.283018275595473E-3</v>
       </c>
       <c r="AI3">
@@ -4374,15 +4378,15 @@
         <v>4.9629827777778246E-2</v>
       </c>
       <c r="I4" s="2">
-        <f>H4+3*G4*1.66</f>
+        <f t="shared" si="3"/>
         <v>8.2826386487120013E-2</v>
       </c>
       <c r="J4" s="3">
-        <f>5*LOG(2*ABS(I4)*1000/(0.45*ABS(D4)^(1/3)+0.001*ABS(D4)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>13.054530789233109</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.473987173047661</v>
       </c>
       <c r="L4">
@@ -4410,35 +4414,35 @@
         <v>5.3400441666666687E-2</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5791765121374588E-2</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3044120624545109E-2</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3317079244406345E-2</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.861797323946252</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.060231669417622</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.067357401190694</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.9298476366107348E-4</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0985206921295936E-3</v>
       </c>
       <c r="AI4">
@@ -4473,15 +4477,15 @@
         <v>4.8124655555555229E-2</v>
       </c>
       <c r="I5" s="2">
-        <f>H5+3*G5*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.13043111452705436</v>
       </c>
       <c r="J5" s="3">
-        <f>5*LOG(2*ABS(I5)*1000/(0.45*ABS(D5)^(1/3)+0.001*ABS(D5)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>14.04059324300092</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.473987173047661</v>
       </c>
       <c r="L5">
@@ -4509,35 +4513,35 @@
         <v>6.6024866666667403E-2</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7290403237035779E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11263744791341239</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10650527809239527</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.603452870485633</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.722101225749661</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.600542869816973</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5805103457881926E-3</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7206565905657796E-3</v>
       </c>
       <c r="AI5">
@@ -4572,15 +4576,15 @@
         <v>1.0070569444443844E-2</v>
       </c>
       <c r="I6" s="2">
-        <f>H6+3*G6*1.66</f>
+        <f t="shared" si="3"/>
         <v>5.1921976652971012E-2</v>
       </c>
       <c r="J6" s="3">
-        <f>5*LOG(2*ABS(I6)*1000/(0.45*ABS(D6)^(1/3)+0.001*ABS(D6)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>11.925640692967161</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.348884605174961</v>
       </c>
       <c r="L6">
@@ -4608,35 +4612,35 @@
         <v>1.046157499999989E-2</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5614343177390967E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0316261526525229E-2</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0724296431758567E-2</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.074818667353316</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.251056683217298</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.398152555228792</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.020591715990532E-3</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.1390525625368407E-3</v>
       </c>
       <c r="AI6">
@@ -4671,15 +4675,15 @@
         <v>9.611347222222566E-3</v>
       </c>
       <c r="I7" s="2">
-        <f>H7+3*G7*1.66</f>
+        <f t="shared" si="3"/>
         <v>4.7383109988888936E-2</v>
       </c>
       <c r="J7" s="3">
-        <f>5*LOG(2*ABS(I7)*1000/(0.45*ABS(D7)^(1/3)+0.001*ABS(D7)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>11.727002416307439</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.348884605174961</v>
       </c>
       <c r="L7">
@@ -4707,35 +4711,35 @@
         <v>1.0321708333333124E-2</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2025810948909129E-2</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1399013439073334E-2</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.979324427673204E-2</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.466465117842951</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.90365852096083</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.834736723354908</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.0275870136191119E-3</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1823343286637813E-4</v>
       </c>
       <c r="AI7">
@@ -4770,15 +4774,15 @@
         <v>9.2803777777777929E-3</v>
       </c>
       <c r="I8" s="2">
-        <f>H8+3*G8*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.27859025927794473</v>
       </c>
       <c r="J8" s="3">
-        <f>5*LOG(2*ABS(I8)*1000/(0.45*ABS(D8)^(1/3)+0.001*ABS(D8)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>17.627217385325327</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L8">
@@ -4806,35 +4810,35 @@
         <v>5.0392724999999999E-2</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1569116177740536</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2724684033002216</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.185141091556356</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.380663247866792</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17.578968481289383</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.739901847227323</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.0889103980526883E-3</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9484378194886003E-2</v>
       </c>
       <c r="AI8">
@@ -4869,15 +4873,15 @@
         <v>-2.4007030555555614E-2</v>
       </c>
       <c r="I9" s="2">
-        <f>H9+3*G9*1.66</f>
-        <v>0.10212041119781051</v>
+        <f t="shared" si="3"/>
+        <v>0.15013447230892174</v>
       </c>
       <c r="J9" s="3">
-        <f>5*LOG(2*ABS(I9)*1000/(0.45*ABS(D9)^(1/3)+0.001*ABS(D9)),10)+1</f>
-        <v>15.447950521962959</v>
+        <f t="shared" si="0"/>
+        <v>16.28478985691131</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L9">
@@ -4905,35 +4909,35 @@
         <v>1.1030233333333334E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5638407916974413E-2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11048204108013224</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1961819237184787</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.065730671804957</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.618846192329311</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.865682691732342</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.5786576131493502E-2</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.1437076500337313E-2</v>
       </c>
       <c r="AI9">
@@ -4968,15 +4972,15 @@
         <v>1.4200941666666689E-2</v>
       </c>
       <c r="I10" s="2">
-        <f>H10+3*G10*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.35499188889492661</v>
       </c>
       <c r="J10" s="3">
-        <f>5*LOG(2*ABS(I10)*1000/(0.45*ABS(D10)^(1/3)+0.001*ABS(D10)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>18.153479898147538</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L10">
@@ -5004,35 +5008,35 @@
         <v>7.730728333333331E-2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16092298007110659</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36818512144143223</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.31899580723437659</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.435478080173844</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.232718919884771</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.921312622063294</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.113372700735008E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3347902785887997E-2</v>
       </c>
       <c r="AI10">
@@ -5067,15 +5071,15 @@
         <v>-1.9232522222222243E-2</v>
       </c>
       <c r="I11" s="2">
-        <f>H11+3*G11*1.66</f>
-        <v>8.7549053189216935E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.12601409763366142</v>
       </c>
       <c r="J11" s="3">
-        <f>5*LOG(2*ABS(I11)*1000/(0.45*ABS(D11)^(1/3)+0.001*ABS(D11)),10)+1</f>
-        <v>15.113645016188055</v>
+        <f t="shared" si="0"/>
+        <v>15.904483416957305</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L11">
@@ -5103,35 +5107,35 @@
         <v>2.0321875000000017E-2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13711875361925197</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12690733920844077</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1101957534706863</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.087872032394507</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.919821440679453</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.613212041461331</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0162935371952395E-3</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4019081133375766E-3</v>
       </c>
       <c r="AI11">
@@ -5166,15 +5170,15 @@
         <v>7.3939916666656558E-3</v>
       </c>
       <c r="I12" s="2">
-        <f>H12+3*G12*1.66</f>
+        <f t="shared" si="3"/>
         <v>4.5905916515742481E-2</v>
       </c>
       <c r="J12" s="3">
-        <f>5*LOG(2*ABS(I12)*1000/(0.45*ABS(D12)^(1/3)+0.001*ABS(D12)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>11.286286581054661</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.482093246661224</v>
       </c>
       <c r="L12">
@@ -5202,35 +5206,35 @@
         <v>1.1430166666667851E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2624774208812444E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9591787666264318E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9120878854733666E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.125253725689948</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.964968826618158</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.433273910630117</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3932804968126451E-4</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.2580813690821065E-4</v>
       </c>
       <c r="AI12">
@@ -5265,15 +5269,15 @@
         <v>7.4862055555549034E-3</v>
       </c>
       <c r="I13" s="2">
-        <f>H13+3*G13*1.66</f>
+        <f t="shared" si="3"/>
         <v>4.4928161425036667E-2</v>
       </c>
       <c r="J13" s="3">
-        <f>5*LOG(2*ABS(I13)*1000/(0.45*ABS(D13)^(1/3)+0.001*ABS(D13)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>11.239536500934879</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.482093246661224</v>
       </c>
       <c r="L13">
@@ -5301,35 +5305,35 @@
         <v>1.1430166666667851E-2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0022100369012596E-2</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9591787666264318E-2</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9120878854733666E-2</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.988442652203105</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.964968826618158</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.433273910630117</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.3884775482994423E-4</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.2580813690821065E-4</v>
       </c>
       <c r="AI13">
@@ -5364,15 +5368,15 @@
         <v>6.2825694444455848E-2</v>
       </c>
       <c r="I14" s="2">
-        <f>H14+3*G14*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.17356594904793754</v>
       </c>
       <c r="J14" s="3">
-        <f>5*LOG(2*ABS(I14)*1000/(0.45*ABS(D14)^(1/3)+0.001*ABS(D14)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>12.176800462287723</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.979477825570713</v>
       </c>
       <c r="L14">
@@ -5400,35 +5404,35 @@
         <v>9.1871149999988688E-2</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.8292343726434306E-2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.64178546334506E-2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11651316592039684</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.942076279082455</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.662495228225108</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.311352841372592</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.4508589971953587E-3</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3443685501433149E-3</v>
       </c>
       <c r="AI14">
@@ -5463,15 +5467,15 @@
         <v>9.4981527777768804E-3</v>
       </c>
       <c r="I15" s="2">
-        <f>H15+3*G15*1.66</f>
+        <f t="shared" si="3"/>
         <v>3.1973223690195424E-2</v>
       </c>
       <c r="J15" s="3">
-        <f>5*LOG(2*ABS(I15)*1000/(0.45*ABS(D15)^(1/3)+0.001*ABS(D15)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>9.7119045761347493</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.187972445717499</v>
       </c>
       <c r="L15">
@@ -5499,35 +5503,35 @@
         <v>9.1565749999986679E-3</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8731193910183878E-2</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4671972097970211E-2</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2897591978804132E-2</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4797408119862183</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8878651681195091</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7737929949519682</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.109626452868741E-3</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2353181777058432E-4</v>
       </c>
       <c r="AI15">
@@ -5562,15 +5566,15 @@
         <v>7.1023416666626815E-3</v>
       </c>
       <c r="I16" s="2">
-        <f>H16+3*G16*1.66</f>
+        <f t="shared" si="3"/>
         <v>5.1319215677700931E-2</v>
       </c>
       <c r="J16" s="3">
-        <f>5*LOG(2*ABS(I16)*1000/(0.45*ABS(D16)^(1/3)+0.001*ABS(D16)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>10.739372497418874</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.187972445717499</v>
       </c>
       <c r="L16">
@@ -5598,35 +5602,35 @@
         <v>1.8098583333333806E-2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5757096173856632E-2</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1845174426512524E-2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0307705945539429E-2</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1753533744715803</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.7031906057283042</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5957377704295279</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5001979149658028E-4</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.7611415959116546E-3</v>
       </c>
       <c r="AI16">
@@ -5661,15 +5665,15 @@
         <v>5.9084819444443326E-2</v>
       </c>
       <c r="I17" s="2">
-        <f>H17+3*G17*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.10977501584156084</v>
       </c>
       <c r="J17" s="3">
-        <f>5*LOG(2*ABS(I17)*1000/(0.45*ABS(D17)^(1/3)+0.001*ABS(D17)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>12.959867804516971</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.252200283951151</v>
       </c>
       <c r="L17">
@@ -5697,35 +5701,35 @@
         <v>5.3090475000001192E-2</v>
       </c>
       <c r="W17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1101254357510312</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10204129111933283</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1018275491215995</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.966788461602857</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.801229987579884</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.796676716757879</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.2950067682076535E-4</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.1723878183934264E-3</v>
       </c>
       <c r="AI17">
@@ -5760,15 +5764,15 @@
         <v>5.5770813888885939E-2</v>
       </c>
       <c r="I18" s="2">
-        <f>H18+3*G18*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.10244261719438122</v>
       </c>
       <c r="J18" s="3">
-        <f>5*LOG(2*ABS(I18)*1000/(0.45*ABS(D18)^(1/3)+0.001*ABS(D18)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>12.80975358853525</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.252200283951151</v>
       </c>
       <c r="L18">
@@ -5796,35 +5800,35 @@
         <v>6.0751074999999766E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5042973739922575E-2</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18:X36" si="9">R18+3*M18*1.66</f>
+        <f t="shared" ref="X18:X36" si="11">R18+3*M18*1.66</f>
         <v>0.10693485173616707</v>
       </c>
       <c r="Y18">
-        <f t="shared" ref="Y18:Y36" si="10">S18+3*N18*1.66</f>
+        <f t="shared" ref="Y18:Y36" si="12">S18+3*N18*1.66</f>
         <v>0.10432356945044932</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.405542452129644</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.902946620397195</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.849262452816166</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9685851493692567E-3</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6214907534906377E-3</v>
       </c>
       <c r="AI18">
@@ -5859,15 +5863,15 @@
         <v>0.12779495833332888</v>
       </c>
       <c r="I19" s="2">
-        <f>H19+3*G19*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.16343371284728866</v>
       </c>
       <c r="J19" s="3">
-        <f>5*LOG(2*ABS(I19)*1000/(0.45*ABS(D19)^(1/3)+0.001*ABS(D19)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>13.289721770035078</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.717863556640458</v>
       </c>
       <c r="L19">
@@ -5895,35 +5899,35 @@
         <v>0.13240491666666721</v>
       </c>
       <c r="W19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16727441458803721</v>
       </c>
       <c r="X19">
+        <f t="shared" si="11"/>
+        <v>0.15323642819014791</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="12"/>
+        <v>0.15589792876686362</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>13.340161128207022</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>13.149823636944051</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>13.187215261286315</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="9"/>
-        <v>0.15323642819014791</v>
-      </c>
-      <c r="Y19">
+        <v>3.3357233911328861E-3</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="10"/>
-        <v>0.15589792876686362</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="4"/>
-        <v>13.340161128207022</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="5"/>
-        <v>13.149823636944051</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="6"/>
-        <v>13.187215261286315</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="7"/>
-        <v>3.3357233911328861E-3</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="8"/>
         <v>1.1913569792403426E-3</v>
       </c>
       <c r="AI19">
@@ -5958,15 +5962,15 @@
         <v>-4.860335833333318E-2</v>
       </c>
       <c r="I20" s="2">
-        <f>H20+3*G20*1.66</f>
-        <v>-3.2425061569749336E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4781655096917024E-2</v>
       </c>
       <c r="J20" s="3">
-        <f>5*LOG(2*ABS(I20)*1000/(0.45*ABS(D20)^(1/3)+0.001*ABS(D20)),10)+1</f>
-        <v>10.988275060090796</v>
+        <f t="shared" si="0"/>
+        <v>12.491131210751348</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L20">
@@ -5994,35 +5998,35 @@
         <v>4.6918724999999384E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1705365812690219E-2</v>
       </c>
       <c r="X20">
+        <f t="shared" si="11"/>
+        <v>6.6972800146497369E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="12"/>
+        <v>6.3003424897576224E-2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>12.385485669638566</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="7"/>
+        <v>12.563363299329982</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="8"/>
+        <v>12.430691805843484</v>
+      </c>
+      <c r="AG20">
         <f t="shared" si="9"/>
-        <v>6.6972800146497369E-2</v>
-      </c>
-      <c r="Y20">
+        <v>-7.1222739321671934E-4</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="10"/>
-        <v>6.3003424897576224E-2</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="4"/>
-        <v>12.385485669638566</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="5"/>
-        <v>12.563363299329982</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="6"/>
-        <v>12.430691805843484</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="7"/>
-        <v>-7.1222739321671934E-4</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="8"/>
         <v>2.3379690406695941E-4</v>
       </c>
       <c r="AI20">
@@ -6057,15 +6061,15 @@
         <v>-4.9634875000001522E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>H21+3*G21*1.66</f>
-        <v>-3.1921751992780557E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.7347998007222493E-2</v>
       </c>
       <c r="J21" s="3">
-        <f>5*LOG(2*ABS(I21)*1000/(0.45*ABS(D21)^(1/3)+0.001*ABS(D21)),10)+1</f>
-        <v>10.954304608755873</v>
+        <f t="shared" si="0"/>
+        <v>12.575494464910687</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L21">
@@ -6093,35 +6097,35 @@
         <v>4.8906424999999754E-2</v>
       </c>
       <c r="W21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.9127804975403842E-2</v>
       </c>
       <c r="X21">
+        <f t="shared" si="11"/>
+        <v>6.4607663138217683E-2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="12"/>
+        <v>6.6460286354113621E-2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>12.632134847492674</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>12.48529117742126</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="8"/>
+        <v>12.546682053892912</v>
+      </c>
+      <c r="AG21">
         <f t="shared" si="9"/>
-        <v>6.4607663138217683E-2</v>
-      </c>
-      <c r="Y21">
+        <v>4.6188478170708716E-5</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="10"/>
-        <v>6.6460286354113621E-2</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="4"/>
-        <v>12.632134847492674</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="5"/>
-        <v>12.48529117742126</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="6"/>
-        <v>12.546682053892912</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="7"/>
-        <v>4.6188478170708716E-5</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="8"/>
         <v>-3.2138016383459174E-4</v>
       </c>
       <c r="AI21">
@@ -6156,15 +6160,15 @@
         <v>-2.3376388888962651E-4</v>
       </c>
       <c r="I22" s="2">
-        <f>H22+3*G22*1.66</f>
-        <v>3.0984729917674633E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1452257695453886E-2</v>
       </c>
       <c r="J22" s="3">
-        <f>5*LOG(2*ABS(I22)*1000/(0.45*ABS(D22)^(1/3)+0.001*ABS(D22)),10)+1</f>
-        <v>10.88960958764118</v>
+        <f t="shared" si="0"/>
+        <v>10.922130139452776</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L22">
@@ -6192,35 +6196,35 @@
         <v>4.6919333333335089E-3</v>
       </c>
       <c r="W22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9678771565279271E-2</v>
       </c>
       <c r="X22">
+        <f t="shared" si="11"/>
+        <v>2.6720282431084742E-2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="12"/>
+        <v>3.0683372138589685E-2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>10.796100618474911</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>10.568076234459925</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="8"/>
+        <v>10.868386449909108</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="9"/>
-        <v>2.6720282431084742E-2</v>
-      </c>
-      <c r="Y22">
+        <v>-1.2401450601946199E-4</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="10"/>
-        <v>3.0683372138589685E-2</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="4"/>
-        <v>10.796100618474911</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="5"/>
-        <v>10.568076234459925</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="6"/>
-        <v>10.868386449909108</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="7"/>
-        <v>-1.2401450601946199E-4</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="8"/>
         <v>-7.2179994813481932E-5</v>
       </c>
       <c r="AI22">
@@ -6255,15 +6259,15 @@
         <v>2.2490611111111392E-2</v>
       </c>
       <c r="I23" s="2">
-        <f>H23+3*G23*1.66</f>
+        <f t="shared" si="3"/>
         <v>5.7347711557033845E-2</v>
       </c>
       <c r="J23" s="3">
-        <f>5*LOG(2*ABS(I23)*1000/(0.45*ABS(D23)^(1/3)+0.001*ABS(D23)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>12.226451474014723</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L23">
@@ -6291,35 +6295,35 @@
         <v>1.6369108333333049E-2</v>
       </c>
       <c r="W23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9409661553945702E-2</v>
       </c>
       <c r="X23">
+        <f t="shared" si="11"/>
+        <v>6.0730083070950604E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="12"/>
+        <v>3.954709269800602E-2</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>11.902930408401772</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="7"/>
+        <v>12.350890388954769</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="8"/>
+        <v>11.41944382242516</v>
+      </c>
+      <c r="AG23">
         <f t="shared" si="9"/>
-        <v>6.0730083070950604E-2</v>
-      </c>
-      <c r="Y23">
+        <v>2.2748872609237424E-4</v>
+      </c>
+      <c r="AH23">
         <f t="shared" si="10"/>
-        <v>3.954709269800602E-2</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="4"/>
-        <v>11.902930408401772</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="5"/>
-        <v>12.350890388954769</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="6"/>
-        <v>11.41944382242516</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="7"/>
-        <v>2.2748872609237424E-4</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="8"/>
         <v>2.3189070360663758E-3</v>
       </c>
       <c r="AI23">
@@ -6354,15 +6358,15 @@
         <v>9.3341922222222706E-2</v>
       </c>
       <c r="I24" s="2">
-        <f>H24+3*G24*1.66</f>
+        <f t="shared" si="3"/>
         <v>9.8974446317828757E-2</v>
       </c>
       <c r="J24" s="3">
-        <f>5*LOG(2*ABS(I24)*1000/(0.45*ABS(D24)^(1/3)+0.001*ABS(D24)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>13.201143929396366</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.233828481517104</v>
       </c>
       <c r="L24">
@@ -6390,35 +6394,35 @@
         <v>9.3990441666666591E-2</v>
       </c>
       <c r="W24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10036664383985855</v>
       </c>
       <c r="X24">
+        <f t="shared" si="11"/>
+        <v>9.5313760145527449E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="12"/>
+        <v>9.822746640265706E-2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>13.231475534975724</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>13.119306539290704</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="8"/>
+        <v>13.184693236685222</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="9"/>
-        <v>9.5313760145527449E-2</v>
-      </c>
-      <c r="Y24">
+        <v>5.3538201550235346E-4</v>
+      </c>
+      <c r="AH24">
         <f t="shared" si="10"/>
-        <v>9.822746640265706E-2</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="4"/>
-        <v>13.231475534975724</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="5"/>
-        <v>13.119306539290704</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="6"/>
-        <v>13.184693236685222</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="7"/>
-        <v>5.3538201550235346E-4</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="8"/>
         <v>-3.0023552686657103E-4</v>
       </c>
       <c r="AI24">
@@ -6453,15 +6457,15 @@
         <v>-2.8803341666668203E-2</v>
       </c>
       <c r="I25" s="2">
-        <f>H25+3*G25*1.66</f>
-        <v>1.5038814712714565E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.2645498046050971E-2</v>
       </c>
       <c r="J25" s="3">
-        <f>5*LOG(2*ABS(I25)*1000/(0.45*ABS(D25)^(1/3)+0.001*ABS(D25)),10)+1</f>
-        <v>8.4362055507992473</v>
+        <f t="shared" si="0"/>
+        <v>11.856181035656906</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L25">
@@ -6489,35 +6493,35 @@
         <v>3.5808833333334178E-2</v>
       </c>
       <c r="W25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0528475331939317E-2</v>
       </c>
       <c r="X25">
+        <f t="shared" si="11"/>
+        <v>6.2402149593546938E-2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="12"/>
+        <v>6.1896027072505425E-2</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>11.791959985171637</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="7"/>
+        <v>11.526135259162899</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>11.508451376844492</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="9"/>
-        <v>6.2402149593546938E-2</v>
-      </c>
-      <c r="Y25">
+        <v>3.9423457013591495E-3</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="10"/>
-        <v>6.1896027072505425E-2</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="4"/>
-        <v>11.791959985171637</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="5"/>
-        <v>11.526135259162899</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="6"/>
-        <v>11.508451376844492</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="7"/>
-        <v>3.9423457013591495E-3</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="8"/>
         <v>2.1128843750421889E-3</v>
       </c>
       <c r="AI25">
@@ -6552,15 +6556,15 @@
         <v>-3.7381619444447622E-2</v>
       </c>
       <c r="I26" s="2">
-        <f>H26+3*G26*1.66</f>
-        <v>-3.1255781914294664E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.1637660697465771E-2</v>
       </c>
       <c r="J26" s="3">
-        <f>5*LOG(2*ABS(I26)*1000/(0.45*ABS(D26)^(1/3)+0.001*ABS(D26)),10)+1</f>
-        <v>5.0247893476160668</v>
+        <f t="shared" si="0"/>
+        <v>11.825844486200511</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L26">
@@ -6588,35 +6592,35 @@
         <v>3.7821741666666853E-2</v>
       </c>
       <c r="W26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0244643023397502E-2</v>
       </c>
       <c r="X26">
+        <f t="shared" si="11"/>
+        <v>6.7492163562872812E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="12"/>
+        <v>7.9144015750581831E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>11.783203556823546</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>11.696404259461849</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="8"/>
+        <v>12.042227920318329</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="9"/>
-        <v>6.7492163562872812E-2</v>
-      </c>
-      <c r="Y26">
+        <v>-1.6100530911346712E-3</v>
+      </c>
+      <c r="AH26">
         <f t="shared" si="10"/>
-        <v>7.9144015750581831E-2</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="4"/>
-        <v>11.783203556823546</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="5"/>
-        <v>11.696404259461849</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="6"/>
-        <v>12.042227920318329</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="7"/>
-        <v>-1.6100530911346712E-3</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="8"/>
         <v>-2.2515650309988637E-3</v>
       </c>
       <c r="AI26">
@@ -6651,15 +6655,15 @@
         <v>-3.9828988888888972E-2</v>
       </c>
       <c r="I27" s="2">
-        <f>H27+3*G27*1.66</f>
-        <v>-4.0006316209551807E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.5657346156822763E-2</v>
       </c>
       <c r="J27" s="3">
-        <f>5*LOG(2*ABS(I27)*1000/(0.45*ABS(D27)^(1/3)+0.001*ABS(D27)),10)+1</f>
-        <v>5.5607803242633995</v>
+        <f t="shared" si="0"/>
+        <v>11.944393024905157</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L27">
@@ -6687,35 +6691,35 @@
         <v>4.1300841666666699E-2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.2662192897553943E-2</v>
       </c>
       <c r="X27">
+        <f t="shared" si="11"/>
+        <v>7.2088962391365391E-2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="12"/>
+        <v>7.3061747534689775E-2</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>12.136672119052642</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="7"/>
+        <v>11.839481380693648</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>11.868587786403076</v>
+      </c>
+      <c r="AG27">
         <f t="shared" si="9"/>
-        <v>7.2088962391365391E-2</v>
-      </c>
-      <c r="Y27">
+        <v>2.2889883593434912E-3</v>
+      </c>
+      <c r="AH27">
         <f t="shared" si="10"/>
-        <v>7.3061747534689775E-2</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="4"/>
-        <v>12.136672119052642</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="5"/>
-        <v>11.839481380693648</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="6"/>
-        <v>11.868587786403076</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" si="7"/>
-        <v>2.2889883593434912E-3</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="8"/>
         <v>3.3013183199646044E-4</v>
       </c>
       <c r="AI27">
@@ -6750,15 +6754,15 @@
         <v>-2.5159663888890904E-2</v>
       </c>
       <c r="I28" s="2">
-        <f>H28+3*G28*1.66</f>
-        <v>1.8783857865356891E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.9103185643138693E-2</v>
       </c>
       <c r="J28" s="3">
-        <f>5*LOG(2*ABS(I28)*1000/(0.45*ABS(D28)^(1/3)+0.001*ABS(D28)),10)+1</f>
-        <v>8.9190614745160079</v>
+        <f t="shared" si="0"/>
+        <v>11.747627851448616</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L28">
@@ -6786,35 +6790,35 @@
         <v>3.1434441666664981E-2</v>
       </c>
       <c r="W28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.251656634642593E-2</v>
       </c>
       <c r="X28">
+        <f t="shared" si="11"/>
+        <v>6.8706912908957529E-2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="12"/>
+        <v>6.8356262870343493E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>11.151619123704336</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="7"/>
+        <v>11.735139685637307</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="8"/>
+        <v>11.724029063968283</v>
+      </c>
+      <c r="AG28">
         <f t="shared" si="9"/>
-        <v>6.8706912908957529E-2</v>
-      </c>
-      <c r="Y28">
+        <v>-9.9530218017117485E-4</v>
+      </c>
+      <c r="AH28">
         <f t="shared" si="10"/>
-        <v>6.8356262870343493E-2</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="4"/>
-        <v>11.151619123704336</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="5"/>
-        <v>11.735139685637307</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="6"/>
-        <v>11.724029063968283</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="7"/>
-        <v>-9.9530218017117485E-4</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="8"/>
         <v>1.665038495036149E-3</v>
       </c>
       <c r="AI28">
@@ -6849,15 +6853,15 @@
         <v>-0.1212081305555559</v>
       </c>
       <c r="I29" s="2">
-        <f>H29+3*G29*1.66</f>
-        <v>-6.989372980500444E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.17252253130610737</v>
       </c>
       <c r="J29" s="3">
-        <f>5*LOG(2*ABS(I29)*1000/(0.45*ABS(D29)^(1/3)+0.001*ABS(D29)),10)+1</f>
-        <v>12.225820129454469</v>
+        <f t="shared" si="0"/>
+        <v>14.187858153809174</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.003629045663764</v>
       </c>
       <c r="L29">
@@ -6885,35 +6889,35 @@
         <v>0.11308094166666738</v>
       </c>
       <c r="W29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17227037745500981</v>
       </c>
       <c r="X29">
+        <f t="shared" si="11"/>
+        <v>0.17076589042054249</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="12"/>
+        <v>0.14961689956355861</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="6"/>
+        <v>14.184682072084099</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="7"/>
+        <v>14.165634680663207</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="8"/>
+        <v>13.878532299826178</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="9"/>
-        <v>0.17076589042054249</v>
-      </c>
-      <c r="Y29">
+        <v>1.8494115578550577E-3</v>
+      </c>
+      <c r="AH29">
         <f t="shared" si="10"/>
-        <v>0.14961689956355861</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="4"/>
-        <v>14.184682072084099</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="5"/>
-        <v>14.165634680663207</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="6"/>
-        <v>13.878532299826178</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="7"/>
-        <v>1.8494115578550577E-3</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="8"/>
         <v>2.0503679766366335E-3</v>
       </c>
       <c r="AI29">
@@ -6948,15 +6952,15 @@
         <v>-0.11874970555555642</v>
       </c>
       <c r="I30" s="2">
-        <f>H30+3*G30*1.66</f>
-        <v>-7.3322573911987654E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.16417683719912518</v>
       </c>
       <c r="J30" s="3">
-        <f>5*LOG(2*ABS(I30)*1000/(0.45*ABS(D30)^(1/3)+0.001*ABS(D30)),10)+1</f>
-        <v>12.32981755571209</v>
+        <f t="shared" si="0"/>
+        <v>14.080188470171926</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.003629045663764</v>
       </c>
       <c r="L30">
@@ -6984,35 +6988,35 @@
         <v>0.11410603333333391</v>
       </c>
       <c r="W30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15990044161265821</v>
       </c>
       <c r="X30">
+        <f t="shared" si="11"/>
+        <v>0.15416804627270975</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="12"/>
+        <v>0.16804421565585614</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="6"/>
+        <v>14.022877361570542</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="7"/>
+        <v>13.943600889417278</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="8"/>
+        <v>14.130746885508621</v>
+      </c>
+      <c r="AG30">
         <f t="shared" si="9"/>
-        <v>0.15416804627270975</v>
-      </c>
-      <c r="Y30">
+        <v>-3.4133281211241378E-3</v>
+      </c>
+      <c r="AH30">
         <f t="shared" si="10"/>
-        <v>0.16804421565585614</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="4"/>
-        <v>14.022877361570542</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="5"/>
-        <v>13.943600889417278</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="6"/>
-        <v>14.130746885508621</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="7"/>
-        <v>-3.4133281211241378E-3</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="8"/>
         <v>-3.8057401706453131E-3</v>
       </c>
       <c r="AI30">
@@ -7047,15 +7051,15 @@
         <v>3.9776133333334407E-2</v>
       </c>
       <c r="I31" s="2">
-        <f>H31+3*G31*1.66</f>
+        <f t="shared" si="3"/>
         <v>8.0408293644494575E-2</v>
       </c>
       <c r="J31" s="3">
-        <f>5*LOG(2*ABS(I31)*1000/(0.45*ABS(D31)^(1/3)+0.001*ABS(D31)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>12.452798021798262</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293791844822</v>
       </c>
       <c r="L31">
@@ -7083,35 +7087,35 @@
         <v>4.7577808333334026E-2</v>
       </c>
       <c r="W31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.429183663938586E-2</v>
       </c>
       <c r="X31">
+        <f t="shared" si="11"/>
+        <v>7.6060151227993353E-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="12"/>
+        <v>7.5639288103623428E-2</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="6"/>
+        <v>11.599966460139674</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="7"/>
+        <v>12.332079714696855</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="8"/>
+        <v>12.320030955499167</v>
+      </c>
+      <c r="AG31">
         <f t="shared" si="9"/>
-        <v>7.6060151227993353E-2</v>
-      </c>
-      <c r="Y31">
+        <v>-1.6692707090166896E-3</v>
+      </c>
+      <c r="AH31">
         <f t="shared" si="10"/>
-        <v>7.5639288103623428E-2</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="4"/>
-        <v>11.599966460139674</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="5"/>
-        <v>12.332079714696855</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="6"/>
-        <v>12.320030955499167</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="7"/>
-        <v>-1.6692707090166896E-3</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="8"/>
         <v>2.166948753220101E-3</v>
       </c>
       <c r="AI31">
@@ -7146,15 +7150,15 @@
         <v>4.4403052777778562E-2</v>
       </c>
       <c r="I32" s="2">
-        <f>H32+3*G32*1.66</f>
+        <f t="shared" si="3"/>
         <v>7.3627262365402013E-2</v>
       </c>
       <c r="J32" s="3">
-        <f>5*LOG(2*ABS(I32)*1000/(0.45*ABS(D32)^(1/3)+0.001*ABS(D32)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>12.261486663619815</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293400181226</v>
       </c>
       <c r="L32">
@@ -7182,35 +7186,35 @@
         <v>4.0978449999999889E-2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7413988346226486E-2</v>
       </c>
       <c r="X32">
+        <f t="shared" si="11"/>
+        <v>7.8570231478512068E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="12"/>
+        <v>6.7736587362038886E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>12.070043508321357</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="7"/>
+        <v>12.402583563366077</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="8"/>
+        <v>12.080409963498036</v>
+      </c>
+      <c r="AG32">
         <f t="shared" si="9"/>
-        <v>7.8570231478512068E-2</v>
-      </c>
-      <c r="Y32">
+        <v>-1.1785255721175284E-3</v>
+      </c>
+      <c r="AH32">
         <f t="shared" si="10"/>
-        <v>6.7736587362038886E-2</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="4"/>
-        <v>12.070043508321357</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="5"/>
-        <v>12.402583563366077</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="6"/>
-        <v>12.080409963498036</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="7"/>
-        <v>-1.1785255721175284E-3</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="8"/>
         <v>1.2261634772033582E-3</v>
       </c>
       <c r="AI32">
@@ -7245,15 +7249,15 @@
         <v>-5.5350908333332782E-2</v>
       </c>
       <c r="I33" s="2">
-        <f>H33+3*G33*1.66</f>
-        <v>2.2956776087035349E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.11299749427536909</v>
       </c>
       <c r="J33" s="3">
-        <f>5*LOG(2*ABS(I33)*1000/(0.45*ABS(D33)^(1/3)+0.001*ABS(D33)),10)+1</f>
-        <v>4.8646277067689931</v>
+        <f t="shared" si="0"/>
+        <v>13.325417280836916</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.060073215386453</v>
       </c>
       <c r="L33">
@@ -7281,35 +7285,35 @@
         <v>4.4927858333332793E-2</v>
       </c>
       <c r="W33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4572882589171209E-2</v>
       </c>
       <c r="X33">
+        <f t="shared" si="11"/>
+        <v>0.10739421895936407</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="12"/>
+        <v>9.4042555015990376E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>12.938906348232667</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="7"/>
+        <v>13.21497773479159</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="8"/>
+        <v>12.926695314581632</v>
+      </c>
+      <c r="AG33">
         <f t="shared" si="9"/>
-        <v>0.10739421895936407</v>
-      </c>
-      <c r="Y33">
+        <v>-3.5268887068581646E-3</v>
+      </c>
+      <c r="AH33">
         <f t="shared" si="10"/>
-        <v>9.4042555015990376E-2</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="4"/>
-        <v>12.938906348232667</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="5"/>
-        <v>13.21497773479159</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="6"/>
-        <v>12.926695314581632</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="7"/>
-        <v>-3.5268887068581646E-3</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="8"/>
         <v>3.5491421025388506E-5</v>
       </c>
       <c r="AI33">
@@ -7344,15 +7348,15 @@
         <v>-6.4001369444444123E-2</v>
       </c>
       <c r="I34" s="2">
-        <f>H34+3*G34*1.66</f>
-        <v>-1.226516989661295E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.1157375689922753</v>
       </c>
       <c r="J34" s="3">
-        <f>5*LOG(2*ABS(I34)*1000/(0.45*ABS(D34)^(1/3)+0.001*ABS(D34)),10)+1</f>
-        <v>8.5034410574504804</v>
+        <f t="shared" si="0"/>
+        <v>13.37744499534921</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.060073215386453</v>
       </c>
       <c r="L34">
@@ -7380,35 +7384,35 @@
         <v>5.5321191666666714E-2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.6835498360061445E-2</v>
       </c>
       <c r="X34">
+        <f t="shared" si="11"/>
+        <v>0.12482037262144074</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="12"/>
+        <v>9.3500274588660864E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="6"/>
+        <v>12.990246175264126</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="7"/>
+        <v>13.541500589033223</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="8"/>
+        <v>12.91413764687017</v>
+      </c>
+      <c r="AG34">
         <f t="shared" si="9"/>
-        <v>0.12482037262144074</v>
-      </c>
-      <c r="Y34">
+        <v>-1.9427479040024787E-3</v>
+      </c>
+      <c r="AH34">
         <f t="shared" si="10"/>
-        <v>9.3500274588660864E-2</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="4"/>
-        <v>12.990246175264126</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="5"/>
-        <v>13.541500589033223</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="6"/>
-        <v>12.91413764687017</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="7"/>
-        <v>-1.9427479040024787E-3</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="8"/>
         <v>3.6726251069837011E-3</v>
       </c>
       <c r="AI34">
@@ -7443,15 +7447,15 @@
         <v>2.3623008333331974E-2</v>
       </c>
       <c r="I35" s="2">
-        <f>H35+3*G35*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.11275577301776124</v>
       </c>
       <c r="J35" s="3">
-        <f>5*LOG(2*ABS(I35)*1000/(0.45*ABS(D35)^(1/3)+0.001*ABS(D35)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>13.186987651892833</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293718407884</v>
       </c>
       <c r="L35">
@@ -7479,35 +7483,35 @@
         <v>4.287108333334011E-3</v>
       </c>
       <c r="W35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.7180890006248992E-2</v>
       </c>
       <c r="X35">
+        <f t="shared" si="11"/>
+        <v>0.10858297109915858</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="12"/>
+        <v>6.3343255900772541E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="6"/>
+        <v>11.71254827220562</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="7"/>
+        <v>13.105102322685147</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="8"/>
+        <v>11.93479563210626</v>
+      </c>
+      <c r="AG35">
         <f t="shared" si="9"/>
-        <v>0.10858297109915858</v>
-      </c>
-      <c r="Y35">
+        <v>-7.4304516521799249E-3</v>
+      </c>
+      <c r="AH35">
         <f t="shared" si="10"/>
-        <v>6.3343255900772541E-2</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="4"/>
-        <v>11.71254827220562</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="5"/>
-        <v>13.105102322685147</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="6"/>
-        <v>11.93479563210626</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="7"/>
-        <v>-7.4304516521799249E-3</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="8"/>
         <v>3.6291764119918274E-3</v>
       </c>
       <c r="AI35">
@@ -7542,15 +7546,15 @@
         <v>1.1267258333332641E-2</v>
       </c>
       <c r="I36" s="2">
-        <f>H36+3*G36*1.66</f>
+        <f t="shared" si="3"/>
         <v>0.12244222173881454</v>
       </c>
       <c r="J36" s="3">
-        <f>5*LOG(2*ABS(I36)*1000/(0.45*ABS(D36)^(1/3)+0.001*ABS(D36)),10)+1</f>
+        <f t="shared" si="0"/>
         <v>13.365949406970129</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293400181226</v>
       </c>
       <c r="L36">
@@ -7578,35 +7582,35 @@
         <v>3.7472791666666616E-2</v>
       </c>
       <c r="W36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6309752160445024E-2</v>
       </c>
       <c r="X36">
+        <f t="shared" si="11"/>
+        <v>8.3423248697341329E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="12"/>
+        <v>9.2220258407025718E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="6"/>
+        <v>10.026877185296536</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="7"/>
+        <v>12.532728891615246</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="8"/>
+        <v>12.750425074210408</v>
+      </c>
+      <c r="AG36">
         <f t="shared" si="9"/>
-        <v>8.3423248697341329E-2</v>
-      </c>
-      <c r="Y36">
+        <v>-7.2331689250161868E-3</v>
+      </c>
+      <c r="AH36">
         <f t="shared" si="10"/>
-        <v>9.2220258407025718E-2</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="4"/>
-        <v>10.026877185296536</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="5"/>
-        <v>12.532728891615246</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="6"/>
-        <v>12.750425074210408</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" si="7"/>
-        <v>-7.2331689250161868E-3</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="8"/>
         <v>4.9725566178678189E-3</v>
       </c>
       <c r="AI36">
@@ -7669,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <f t="shared" ref="AE39:AE53" si="11">AA39+AB39+AC39</f>
+        <f t="shared" ref="AE39:AE53" si="13">AA39+AB39+AC39</f>
         <v>0</v>
       </c>
     </row>
@@ -7694,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7719,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7744,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7769,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -7794,7 +7798,7 @@
         <v>2</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -7819,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
     </row>
@@ -7844,7 +7848,7 @@
         <v>10</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -7869,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
     </row>
@@ -7894,7 +7898,7 @@
         <v>7</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
@@ -7919,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
@@ -7944,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
@@ -7969,7 +7973,7 @@
         <v>2</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -7994,7 +7998,7 @@
         <v>1</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
@@ -8019,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>

--- a/DataFraIT.xlsx
+++ b/DataFraIT.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="0" windowWidth="21260" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="580" windowWidth="20900" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DATA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -345,8 +345,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -452,15 +452,15 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -919,11 +919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119573352"/>
-        <c:axId val="-2121419912"/>
+        <c:axId val="531273992"/>
+        <c:axId val="531276872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119573352"/>
+        <c:axId val="531273992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121419912"/>
+        <c:crossAx val="531276872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2121419912"/>
+        <c:axId val="531276872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119573352"/>
+        <c:crossAx val="531273992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125610056"/>
-        <c:axId val="-2125534376"/>
+        <c:axId val="531344440"/>
+        <c:axId val="531347416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125610056"/>
+        <c:axId val="531344440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125534376"/>
+        <c:crossAx val="531347416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1413,7 +1413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125534376"/>
+        <c:axId val="531347416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125610056"/>
+        <c:crossAx val="531344440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1865,11 +1865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119106648"/>
-        <c:axId val="-2117040696"/>
+        <c:axId val="531377928"/>
+        <c:axId val="531380904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119106648"/>
+        <c:axId val="531377928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117040696"/>
+        <c:crossAx val="531380904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1886,7 +1886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117040696"/>
+        <c:axId val="531380904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119106648"/>
+        <c:crossAx val="531377928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2145,11 +2145,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2120329800"/>
-        <c:axId val="-2118832296"/>
+        <c:axId val="531415608"/>
+        <c:axId val="611896616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2120329800"/>
+        <c:axId val="531415608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,13 +2171,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118832296"/>
+        <c:crossAx val="611896616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2185,7 +2184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118832296"/>
+        <c:axId val="611896616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,21 +2207,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120329800"/>
+        <c:crossAx val="531415608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2511,11 +2508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107992968"/>
-        <c:axId val="-2108090712"/>
+        <c:axId val="611935624"/>
+        <c:axId val="611938600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107992968"/>
+        <c:axId val="611935624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108090712"/>
+        <c:crossAx val="611938600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2532,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108090712"/>
+        <c:axId val="611938600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2540,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107992968"/>
+        <c:crossAx val="611935624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2839,11 +2836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114395912"/>
-        <c:axId val="-2114195848"/>
+        <c:axId val="611965272"/>
+        <c:axId val="611968248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114395912"/>
+        <c:axId val="611965272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114195848"/>
+        <c:crossAx val="611968248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114195848"/>
+        <c:axId val="611968248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114395912"/>
+        <c:crossAx val="611965272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2988,11 +2985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114792728"/>
-        <c:axId val="-2112245448"/>
+        <c:axId val="611991544"/>
+        <c:axId val="611994184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114792728"/>
+        <c:axId val="611991544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112245448"/>
+        <c:crossAx val="611994184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3009,7 +3006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112245448"/>
+        <c:axId val="611994184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,14 +3017,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114792728"/>
+        <c:crossAx val="611991544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3438,11 +3434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2111909432"/>
-        <c:axId val="-2112466232"/>
+        <c:axId val="612023848"/>
+        <c:axId val="612026824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2111909432"/>
+        <c:axId val="612023848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,7 +3447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112466232"/>
+        <c:crossAx val="612026824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3459,7 +3455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112466232"/>
+        <c:axId val="612026824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,9 +3466,362 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111909432"/>
+        <c:crossAx val="612023848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>11.47398717304766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.47398717304766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.47398717304766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.47398717304766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.34888460517496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.34888460517496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.40238774763853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.40238774763853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.40238774763853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.40238774763853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.48209324666122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.48209324666122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.97947782557071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.1879724457175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.1879724457175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.25220028395115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.25220028395115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.71786355664046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.43387101304467</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.43387101304467</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.43387101304467</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.43387101304467</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.2338284815171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.5501375078232</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5501375078232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5501375078232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.5501375078232</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.00362904566376</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.00362904566376</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.92629379184482</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.92629340018123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.06007321538645</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.06007321538645</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.92629371840788</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.92629340018123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>14.00300444353934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.05736459079462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.05453078923311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.04059324300092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.92564069296716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.72700241630744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.62721738532533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.44795052196296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.15347989814754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.11364501618806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.28628658105466</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.23953650093488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.17680046228772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.71190457613475</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.73937249741887</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.95986780451697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.80975358853525</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.28972177003508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.9882750600908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.95430460875587</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.88960958764118</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.22645147401472</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.20114392939637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.436205550799247</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.024789347616067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5607803242634</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.919061474516008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.22582012945447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.32981755571209</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.45279802179826</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.26148666361981</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.864627706768993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.50344105745048</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.18698765189283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.36594940697013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$38:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$38:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="612055160"/>
+        <c:axId val="612058152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="612055160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612058152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="612058152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="612055160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3497,15 +3846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3729,6 +4078,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Chart 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4061,9 +4440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4176,11 +4555,11 @@
         <v>5.7401822222221899E-2</v>
       </c>
       <c r="I2" s="2">
-        <f>H2+3*G2*1.66</f>
+        <f t="shared" ref="I2:I36" si="0">H2+3*G2*1.66</f>
         <v>0.12819274447237011</v>
       </c>
       <c r="J2" s="3">
-        <f>5*LOG(2*ABS(I2)*1000/(0.45*ABS(D2)^(1/3)+0.001*ABS(D2)),10)+1</f>
+        <f t="shared" ref="J2:J36" si="1">5*LOG(2*ABS(I2)*1000/(0.45*ABS(D2)^(1/3)+0.001*ABS(D2)),10)+1</f>
         <v>14.003004443539341</v>
       </c>
       <c r="K2" s="3">
@@ -4216,11 +4595,11 @@
         <v>0.10153395817892252</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:Y17" si="0">R2+3*M2*1.66</f>
+        <f t="shared" ref="X2:Y17" si="2">R2+3*M2*1.66</f>
         <v>0.1240491996550102</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11451614187903297</v>
       </c>
       <c r="AA2">
@@ -4228,11 +4607,11 @@
         <v>13.496743801211975</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AC2" si="1">5*LOG(2*ABS(X2)*1000/(0.45*ABS($D2)^(1/3)+0.001*ABS($D2)),10)+1</f>
+        <f t="shared" ref="AB2:AC2" si="3">5*LOG(2*ABS(X2)*1000/(0.45*ABS($D2)^(1/3)+0.001*ABS($D2)),10)+1</f>
         <v>13.931657049512111</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.758020756114458</v>
       </c>
       <c r="AG2">
@@ -4275,15 +4654,15 @@
         <v>5.2404688888889162E-2</v>
       </c>
       <c r="I3" s="2">
-        <f>H3+3*G3*1.66</f>
+        <f t="shared" si="0"/>
         <v>8.2934546628224221E-2</v>
       </c>
       <c r="J3" s="3">
-        <f>5*LOG(2*ABS(I3)*1000/(0.45*ABS(D3)^(1/3)+0.001*ABS(D3)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>13.057364590794622</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K36" si="2">5*LOG(2*ABS(E3)*1000/(0.45*ABS(D3)^(1/3)+0.001*ABS(D3)),10)+1</f>
+        <f t="shared" ref="K3:K36" si="4">5*LOG(2*ABS(E3)*1000/(0.45*ABS(D3)^(1/3)+0.001*ABS(D3)),10)+1</f>
         <v>11.473987173047661</v>
       </c>
       <c r="L3">
@@ -4311,35 +4690,35 @@
         <v>5.3313058333333441E-2</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W36" si="3">Q3+3*L3*1.66</f>
+        <f t="shared" ref="W3:W36" si="5">Q3+3*L3*1.66</f>
         <v>8.9971509680051034E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5101999855601814E-2</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1400930868067059E-2</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA36" si="4">5*LOG(2*ABS(W3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
+        <f t="shared" ref="AA3:AA36" si="6">5*LOG(2*ABS(W3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
         <v>13.234212255405712</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB36" si="5">5*LOG(2*ABS(X3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
+        <f t="shared" ref="AB3:AB36" si="7">5*LOG(2*ABS(X3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
         <v>12.841944725309421</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC36" si="6">5*LOG(2*ABS(Y3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
+        <f t="shared" ref="AC3:AC36" si="8">5*LOG(2*ABS(Y3)*1000/(0.45*ABS($D3)^(1/3)+0.001*ABS($D3)),10)+1</f>
         <v>13.016834073074579</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG36" si="7">L3-N3</f>
+        <f t="shared" ref="AG3:AG36" si="9">L3-N3</f>
         <v>2.2863829609070336E-3</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH36" si="8">M3-N3</f>
+        <f t="shared" ref="AH3:AH36" si="10">M3-N3</f>
         <v>-1.283018275595473E-3</v>
       </c>
       <c r="AI3">
@@ -4374,15 +4753,15 @@
         <v>4.9629827777778246E-2</v>
       </c>
       <c r="I4" s="2">
-        <f>H4+3*G4*1.66</f>
+        <f t="shared" si="0"/>
         <v>8.2826386487120013E-2</v>
       </c>
       <c r="J4" s="3">
-        <f>5*LOG(2*ABS(I4)*1000/(0.45*ABS(D4)^(1/3)+0.001*ABS(D4)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>13.054530789233109</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.473987173047661</v>
       </c>
       <c r="L4">
@@ -4410,35 +4789,35 @@
         <v>5.3400441666666687E-2</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5791765121374588E-2</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3044120624545109E-2</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3317079244406345E-2</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.861797323946252</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.060231669417622</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.067357401190694</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.9298476366107348E-4</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0985206921295936E-3</v>
       </c>
       <c r="AI4">
@@ -4473,15 +4852,15 @@
         <v>4.8124655555555229E-2</v>
       </c>
       <c r="I5" s="2">
-        <f>H5+3*G5*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.13043111452705436</v>
       </c>
       <c r="J5" s="3">
-        <f>5*LOG(2*ABS(I5)*1000/(0.45*ABS(D5)^(1/3)+0.001*ABS(D5)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>14.04059324300092</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.473987173047661</v>
       </c>
       <c r="L5">
@@ -4509,35 +4888,35 @@
         <v>6.6024866666667403E-2</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7290403237035779E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11263744791341239</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10650527809239527</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.603452870485633</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.722101225749661</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13.600542869816973</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5805103457881926E-3</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.7206565905657796E-3</v>
       </c>
       <c r="AI5">
@@ -4572,15 +4951,15 @@
         <v>1.0070569444443844E-2</v>
       </c>
       <c r="I6" s="2">
-        <f>H6+3*G6*1.66</f>
+        <f t="shared" si="0"/>
         <v>5.1921976652971012E-2</v>
       </c>
       <c r="J6" s="3">
-        <f>5*LOG(2*ABS(I6)*1000/(0.45*ABS(D6)^(1/3)+0.001*ABS(D6)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>11.925640692967161</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.348884605174961</v>
       </c>
       <c r="L6">
@@ -4608,35 +4987,35 @@
         <v>1.046157499999989E-2</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5614343177390967E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0316261526525229E-2</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0724296431758567E-2</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.074818667353316</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.251056683217298</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.398152555228792</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.020591715990532E-3</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.1390525625368407E-3</v>
       </c>
       <c r="AI6">
@@ -4671,15 +5050,15 @@
         <v>9.611347222222566E-3</v>
       </c>
       <c r="I7" s="2">
-        <f>H7+3*G7*1.66</f>
+        <f t="shared" si="0"/>
         <v>4.7383109988888936E-2</v>
       </c>
       <c r="J7" s="3">
-        <f>5*LOG(2*ABS(I7)*1000/(0.45*ABS(D7)^(1/3)+0.001*ABS(D7)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>11.727002416307439</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.348884605174961</v>
       </c>
       <c r="L7">
@@ -4707,35 +5086,35 @@
         <v>1.0321708333333124E-2</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2025810948909129E-2</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.1399013439073334E-2</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.979324427673204E-2</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.466465117842951</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.90365852096083</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.834736723354908</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.0275870136191119E-3</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1823343286637813E-4</v>
       </c>
       <c r="AI7">
@@ -4770,15 +5149,15 @@
         <v>9.2803777777777929E-3</v>
       </c>
       <c r="I8" s="2">
-        <f>H8+3*G8*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.27859025927794473</v>
       </c>
       <c r="J8" s="3">
-        <f>5*LOG(2*ABS(I8)*1000/(0.45*ABS(D8)^(1/3)+0.001*ABS(D8)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>17.627217385325327</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L8">
@@ -4806,35 +5185,35 @@
         <v>5.0392724999999999E-2</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1569116177740536</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2724684033002216</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.185141091556356</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.380663247866792</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17.578968481289383</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.739901847227323</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.0889103980526883E-3</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9484378194886003E-2</v>
       </c>
       <c r="AI8">
@@ -4869,15 +5248,15 @@
         <v>-2.4007030555555614E-2</v>
       </c>
       <c r="I9" s="2">
-        <f>H9+3*G9*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.10212041119781051</v>
       </c>
       <c r="J9" s="3">
-        <f>5*LOG(2*ABS(I9)*1000/(0.45*ABS(D9)^(1/3)+0.001*ABS(D9)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>15.447950521962959</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L9">
@@ -4905,35 +5284,35 @@
         <v>1.1030233333333334E-2</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5638407916974413E-2</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11048204108013224</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1961819237184787</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15.065730671804957</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.618846192329311</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16.865682691732342</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.5786576131493502E-2</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.1437076500337313E-2</v>
       </c>
       <c r="AI9">
@@ -4968,15 +5347,15 @@
         <v>1.4200941666666689E-2</v>
       </c>
       <c r="I10" s="2">
-        <f>H10+3*G10*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.35499188889492661</v>
       </c>
       <c r="J10" s="3">
-        <f>5*LOG(2*ABS(I10)*1000/(0.45*ABS(D10)^(1/3)+0.001*ABS(D10)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>18.153479898147538</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L10">
@@ -5004,35 +5383,35 @@
         <v>7.730728333333331E-2</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16092298007110659</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36818512144143223</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31899580723437659</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.435478080173844</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.232718919884771</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17.921312622063294</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.113372700735008E-2</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3347902785887997E-2</v>
       </c>
       <c r="AI10">
@@ -5067,15 +5446,15 @@
         <v>-1.9232522222222243E-2</v>
       </c>
       <c r="I11" s="2">
-        <f>H11+3*G11*1.66</f>
+        <f t="shared" si="0"/>
         <v>8.7549053189216935E-2</v>
       </c>
       <c r="J11" s="3">
-        <f>5*LOG(2*ABS(I11)*1000/(0.45*ABS(D11)^(1/3)+0.001*ABS(D11)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>15.113645016188055</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.40238774763853</v>
       </c>
       <c r="L11">
@@ -5103,35 +5482,35 @@
         <v>2.0321875000000017E-2</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13711875361925197</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12690733920844077</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1101957534706863</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16.087872032394507</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15.919821440679453</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15.613212041461331</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0162935371952395E-3</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4019081133375766E-3</v>
       </c>
       <c r="AI11">
@@ -5166,15 +5545,15 @@
         <v>7.3939916666656558E-3</v>
       </c>
       <c r="I12" s="2">
-        <f>H12+3*G12*1.66</f>
+        <f t="shared" si="0"/>
         <v>4.5905916515742481E-2</v>
       </c>
       <c r="J12" s="3">
-        <f>5*LOG(2*ABS(I12)*1000/(0.45*ABS(D12)^(1/3)+0.001*ABS(D12)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>11.286286581054661</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.482093246661224</v>
       </c>
       <c r="L12">
@@ -5202,35 +5581,35 @@
         <v>1.1430166666667851E-2</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2624774208812444E-2</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9591787666264318E-2</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9120878854733666E-2</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11.125253725689948</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.964968826618158</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.433273910630117</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3932804968126451E-4</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.2580813690821065E-4</v>
       </c>
       <c r="AI12">
@@ -5265,15 +5644,15 @@
         <v>7.4862055555549034E-3</v>
       </c>
       <c r="I13" s="2">
-        <f>H13+3*G13*1.66</f>
+        <f t="shared" si="0"/>
         <v>4.4928161425036667E-2</v>
       </c>
       <c r="J13" s="3">
-        <f>5*LOG(2*ABS(I13)*1000/(0.45*ABS(D13)^(1/3)+0.001*ABS(D13)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>11.239536500934879</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.482093246661224</v>
       </c>
       <c r="L13">
@@ -5301,35 +5680,35 @@
         <v>1.1430166666667851E-2</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0022100369012596E-2</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9591787666264318E-2</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9120878854733666E-2</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.988442652203105</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.964968826618158</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.433273910630117</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.3884775482994423E-4</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-9.2580813690821065E-4</v>
       </c>
       <c r="AI13">
@@ -5364,15 +5743,15 @@
         <v>6.2825694444455848E-2</v>
       </c>
       <c r="I14" s="2">
-        <f>H14+3*G14*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.17356594904793754</v>
       </c>
       <c r="J14" s="3">
-        <f>5*LOG(2*ABS(I14)*1000/(0.45*ABS(D14)^(1/3)+0.001*ABS(D14)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.176800462287723</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.979477825570713</v>
       </c>
       <c r="L14">
@@ -5400,35 +5779,35 @@
         <v>9.1871149999988688E-2</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.8292343726434306E-2</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.64178546334506E-2</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11651316592039684</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.942076279082455</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.662495228225108</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11.311352841372592</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.4508589971953587E-3</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3443685501433149E-3</v>
       </c>
       <c r="AI14">
@@ -5463,15 +5842,15 @@
         <v>9.4981527777768804E-3</v>
       </c>
       <c r="I15" s="2">
-        <f>H15+3*G15*1.66</f>
+        <f t="shared" si="0"/>
         <v>3.1973223690195424E-2</v>
       </c>
       <c r="J15" s="3">
-        <f>5*LOG(2*ABS(I15)*1000/(0.45*ABS(D15)^(1/3)+0.001*ABS(D15)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>9.7119045761347493</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.187972445717499</v>
       </c>
       <c r="L15">
@@ -5499,35 +5878,35 @@
         <v>9.1565749999986679E-3</v>
       </c>
       <c r="W15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8731193910183878E-2</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4671972097970211E-2</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2897591978804132E-2</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4797408119862183</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8878651681195091</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.7737929949519682</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.109626452868741E-3</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2353181777058432E-4</v>
       </c>
       <c r="AI15">
@@ -5562,15 +5941,15 @@
         <v>7.1023416666626815E-3</v>
       </c>
       <c r="I16" s="2">
-        <f>H16+3*G16*1.66</f>
+        <f t="shared" si="0"/>
         <v>5.1319215677700931E-2</v>
       </c>
       <c r="J16" s="3">
-        <f>5*LOG(2*ABS(I16)*1000/(0.45*ABS(D16)^(1/3)+0.001*ABS(D16)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>10.739372497418874</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.187972445717499</v>
       </c>
       <c r="L16">
@@ -5598,35 +5977,35 @@
         <v>1.8098583333333806E-2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5757096173856632E-2</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1845174426512524E-2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0307705945539429E-2</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.1753533744715803</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.7031906057283042</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5957377704295279</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5001979149658028E-4</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.7611415959116546E-3</v>
       </c>
       <c r="AI16">
@@ -5661,15 +6040,15 @@
         <v>5.9084819444443326E-2</v>
       </c>
       <c r="I17" s="2">
-        <f>H17+3*G17*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.10977501584156084</v>
       </c>
       <c r="J17" s="3">
-        <f>5*LOG(2*ABS(I17)*1000/(0.45*ABS(D17)^(1/3)+0.001*ABS(D17)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.959867804516971</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.252200283951151</v>
       </c>
       <c r="L17">
@@ -5697,35 +6076,35 @@
         <v>5.3090475000001192E-2</v>
       </c>
       <c r="W17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1101254357510312</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10204129111933283</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1018275491215995</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.966788461602857</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.801229987579884</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.796676716757879</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.2950067682076535E-4</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-1.1723878183934264E-3</v>
       </c>
       <c r="AI17">
@@ -5760,15 +6139,15 @@
         <v>5.5770813888885939E-2</v>
       </c>
       <c r="I18" s="2">
-        <f>H18+3*G18*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.10244261719438122</v>
       </c>
       <c r="J18" s="3">
-        <f>5*LOG(2*ABS(I18)*1000/(0.45*ABS(D18)^(1/3)+0.001*ABS(D18)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.80975358853525</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.252200283951151</v>
       </c>
       <c r="L18">
@@ -5796,35 +6175,35 @@
         <v>6.0751074999999766E-2</v>
       </c>
       <c r="W18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5042973739922575E-2</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="X18:X36" si="9">R18+3*M18*1.66</f>
+        <f t="shared" ref="X18:X36" si="11">R18+3*M18*1.66</f>
         <v>0.10693485173616707</v>
       </c>
       <c r="Y18">
-        <f t="shared" ref="Y18:Y36" si="10">S18+3*N18*1.66</f>
+        <f t="shared" ref="Y18:Y36" si="12">S18+3*N18*1.66</f>
         <v>0.10432356945044932</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.405542452129644</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.902946620397195</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12.849262452816166</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.9685851493692567E-3</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6214907534906377E-3</v>
       </c>
       <c r="AI18">
@@ -5859,15 +6238,15 @@
         <v>0.12779495833332888</v>
       </c>
       <c r="I19" s="2">
-        <f>H19+3*G19*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.16343371284728866</v>
       </c>
       <c r="J19" s="3">
-        <f>5*LOG(2*ABS(I19)*1000/(0.45*ABS(D19)^(1/3)+0.001*ABS(D19)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>13.289721770035078</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10.717863556640458</v>
       </c>
       <c r="L19">
@@ -5895,35 +6274,35 @@
         <v>0.13240491666666721</v>
       </c>
       <c r="W19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16727441458803721</v>
       </c>
       <c r="X19">
+        <f t="shared" si="11"/>
+        <v>0.15323642819014791</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="12"/>
+        <v>0.15589792876686362</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="6"/>
+        <v>13.340161128207022</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="7"/>
+        <v>13.149823636944051</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>13.187215261286315</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="9"/>
-        <v>0.15323642819014791</v>
-      </c>
-      <c r="Y19">
+        <v>3.3357233911328861E-3</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="10"/>
-        <v>0.15589792876686362</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="4"/>
-        <v>13.340161128207022</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="5"/>
-        <v>13.149823636944051</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="6"/>
-        <v>13.187215261286315</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="7"/>
-        <v>3.3357233911328861E-3</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="8"/>
         <v>1.1913569792403426E-3</v>
       </c>
       <c r="AI19">
@@ -5958,15 +6337,15 @@
         <v>-4.860335833333318E-2</v>
       </c>
       <c r="I20" s="2">
-        <f>H20+3*G20*1.66</f>
+        <f t="shared" si="0"/>
         <v>-3.2425061569749336E-2</v>
       </c>
       <c r="J20" s="3">
-        <f>5*LOG(2*ABS(I20)*1000/(0.45*ABS(D20)^(1/3)+0.001*ABS(D20)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>10.988275060090796</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L20">
@@ -5994,35 +6373,35 @@
         <v>4.6918724999999384E-2</v>
       </c>
       <c r="W20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.1705365812690219E-2</v>
       </c>
       <c r="X20">
+        <f t="shared" si="11"/>
+        <v>6.6972800146497369E-2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="12"/>
+        <v>6.3003424897576224E-2</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="6"/>
+        <v>12.385485669638566</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="7"/>
+        <v>12.563363299329982</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="8"/>
+        <v>12.430691805843484</v>
+      </c>
+      <c r="AG20">
         <f t="shared" si="9"/>
-        <v>6.6972800146497369E-2</v>
-      </c>
-      <c r="Y20">
+        <v>-7.1222739321671934E-4</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="10"/>
-        <v>6.3003424897576224E-2</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="4"/>
-        <v>12.385485669638566</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="5"/>
-        <v>12.563363299329982</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="6"/>
-        <v>12.430691805843484</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="7"/>
-        <v>-7.1222739321671934E-4</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="8"/>
         <v>2.3379690406695941E-4</v>
       </c>
       <c r="AI20">
@@ -6057,15 +6436,15 @@
         <v>-4.9634875000001522E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>H21+3*G21*1.66</f>
+        <f t="shared" si="0"/>
         <v>-3.1921751992780557E-2</v>
       </c>
       <c r="J21" s="3">
-        <f>5*LOG(2*ABS(I21)*1000/(0.45*ABS(D21)^(1/3)+0.001*ABS(D21)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>10.954304608755873</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L21">
@@ -6093,35 +6472,35 @@
         <v>4.8906424999999754E-2</v>
       </c>
       <c r="W21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.9127804975403842E-2</v>
       </c>
       <c r="X21">
+        <f t="shared" si="11"/>
+        <v>6.4607663138217683E-2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="12"/>
+        <v>6.6460286354113621E-2</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="6"/>
+        <v>12.632134847492674</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="7"/>
+        <v>12.48529117742126</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="8"/>
+        <v>12.546682053892912</v>
+      </c>
+      <c r="AG21">
         <f t="shared" si="9"/>
-        <v>6.4607663138217683E-2</v>
-      </c>
-      <c r="Y21">
+        <v>4.6188478170708716E-5</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="10"/>
-        <v>6.6460286354113621E-2</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="4"/>
-        <v>12.632134847492674</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="5"/>
-        <v>12.48529117742126</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="6"/>
-        <v>12.546682053892912</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="7"/>
-        <v>4.6188478170708716E-5</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="8"/>
         <v>-3.2138016383459174E-4</v>
       </c>
       <c r="AI21">
@@ -6156,15 +6535,15 @@
         <v>-2.3376388888962651E-4</v>
       </c>
       <c r="I22" s="2">
-        <f>H22+3*G22*1.66</f>
+        <f t="shared" si="0"/>
         <v>3.0984729917674633E-2</v>
       </c>
       <c r="J22" s="3">
-        <f>5*LOG(2*ABS(I22)*1000/(0.45*ABS(D22)^(1/3)+0.001*ABS(D22)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>10.88960958764118</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L22">
@@ -6192,35 +6571,35 @@
         <v>4.6919333333335089E-3</v>
       </c>
       <c r="W22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9678771565279271E-2</v>
       </c>
       <c r="X22">
+        <f t="shared" si="11"/>
+        <v>2.6720282431084742E-2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="12"/>
+        <v>3.0683372138589685E-2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="6"/>
+        <v>10.796100618474911</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="7"/>
+        <v>10.568076234459925</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="8"/>
+        <v>10.868386449909108</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="9"/>
-        <v>2.6720282431084742E-2</v>
-      </c>
-      <c r="Y22">
+        <v>-1.2401450601946199E-4</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="10"/>
-        <v>3.0683372138589685E-2</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="4"/>
-        <v>10.796100618474911</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="5"/>
-        <v>10.568076234459925</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="6"/>
-        <v>10.868386449909108</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="7"/>
-        <v>-1.2401450601946199E-4</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="8"/>
         <v>-7.2179994813481932E-5</v>
       </c>
       <c r="AI22">
@@ -6255,15 +6634,15 @@
         <v>2.2490611111111392E-2</v>
       </c>
       <c r="I23" s="2">
-        <f>H23+3*G23*1.66</f>
+        <f t="shared" si="0"/>
         <v>5.7347711557033845E-2</v>
       </c>
       <c r="J23" s="3">
-        <f>5*LOG(2*ABS(I23)*1000/(0.45*ABS(D23)^(1/3)+0.001*ABS(D23)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.226451474014723</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.433871013044671</v>
       </c>
       <c r="L23">
@@ -6291,35 +6670,35 @@
         <v>1.6369108333333049E-2</v>
       </c>
       <c r="W23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9409661553945702E-2</v>
       </c>
       <c r="X23">
+        <f t="shared" si="11"/>
+        <v>6.0730083070950604E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="12"/>
+        <v>3.954709269800602E-2</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="6"/>
+        <v>11.902930408401772</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="7"/>
+        <v>12.350890388954769</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="8"/>
+        <v>11.41944382242516</v>
+      </c>
+      <c r="AG23">
         <f t="shared" si="9"/>
-        <v>6.0730083070950604E-2</v>
-      </c>
-      <c r="Y23">
+        <v>2.2748872609237424E-4</v>
+      </c>
+      <c r="AH23">
         <f t="shared" si="10"/>
-        <v>3.954709269800602E-2</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="4"/>
-        <v>11.902930408401772</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="5"/>
-        <v>12.350890388954769</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="6"/>
-        <v>11.41944382242516</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="7"/>
-        <v>2.2748872609237424E-4</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="8"/>
         <v>2.3189070360663758E-3</v>
       </c>
       <c r="AI23">
@@ -6354,15 +6733,15 @@
         <v>9.3341922222222706E-2</v>
       </c>
       <c r="I24" s="2">
-        <f>H24+3*G24*1.66</f>
+        <f t="shared" si="0"/>
         <v>9.8974446317828757E-2</v>
       </c>
       <c r="J24" s="3">
-        <f>5*LOG(2*ABS(I24)*1000/(0.45*ABS(D24)^(1/3)+0.001*ABS(D24)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>13.201143929396366</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.233828481517104</v>
       </c>
       <c r="L24">
@@ -6390,35 +6769,35 @@
         <v>9.3990441666666591E-2</v>
       </c>
       <c r="W24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10036664383985855</v>
       </c>
       <c r="X24">
+        <f t="shared" si="11"/>
+        <v>9.5313760145527449E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="12"/>
+        <v>9.822746640265706E-2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="6"/>
+        <v>13.231475534975724</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="7"/>
+        <v>13.119306539290704</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="8"/>
+        <v>13.184693236685222</v>
+      </c>
+      <c r="AG24">
         <f t="shared" si="9"/>
-        <v>9.5313760145527449E-2</v>
-      </c>
-      <c r="Y24">
+        <v>5.3538201550235346E-4</v>
+      </c>
+      <c r="AH24">
         <f t="shared" si="10"/>
-        <v>9.822746640265706E-2</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="4"/>
-        <v>13.231475534975724</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="5"/>
-        <v>13.119306539290704</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="6"/>
-        <v>13.184693236685222</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="7"/>
-        <v>5.3538201550235346E-4</v>
-      </c>
-      <c r="AH24">
-        <f t="shared" si="8"/>
         <v>-3.0023552686657103E-4</v>
       </c>
       <c r="AI24">
@@ -6453,15 +6832,15 @@
         <v>-2.8803341666668203E-2</v>
       </c>
       <c r="I25" s="2">
-        <f>H25+3*G25*1.66</f>
+        <f t="shared" si="0"/>
         <v>1.5038814712714565E-2</v>
       </c>
       <c r="J25" s="3">
-        <f>5*LOG(2*ABS(I25)*1000/(0.45*ABS(D25)^(1/3)+0.001*ABS(D25)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>8.4362055507992473</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L25">
@@ -6489,35 +6868,35 @@
         <v>3.5808833333334178E-2</v>
       </c>
       <c r="W25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0528475331939317E-2</v>
       </c>
       <c r="X25">
+        <f t="shared" si="11"/>
+        <v>6.2402149593546938E-2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="12"/>
+        <v>6.1896027072505425E-2</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="6"/>
+        <v>11.791959985171637</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="7"/>
+        <v>11.526135259162899</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>11.508451376844492</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="9"/>
-        <v>6.2402149593546938E-2</v>
-      </c>
-      <c r="Y25">
+        <v>3.9423457013591495E-3</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="10"/>
-        <v>6.1896027072505425E-2</v>
-      </c>
-      <c r="AA25">
-        <f t="shared" si="4"/>
-        <v>11.791959985171637</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="5"/>
-        <v>11.526135259162899</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="6"/>
-        <v>11.508451376844492</v>
-      </c>
-      <c r="AG25">
-        <f t="shared" si="7"/>
-        <v>3.9423457013591495E-3</v>
-      </c>
-      <c r="AH25">
-        <f t="shared" si="8"/>
         <v>2.1128843750421889E-3</v>
       </c>
       <c r="AI25">
@@ -6552,15 +6931,15 @@
         <v>-3.7381619444447622E-2</v>
       </c>
       <c r="I26" s="2">
-        <f>H26+3*G26*1.66</f>
+        <f t="shared" si="0"/>
         <v>-3.1255781914294664E-3</v>
       </c>
       <c r="J26" s="3">
-        <f>5*LOG(2*ABS(I26)*1000/(0.45*ABS(D26)^(1/3)+0.001*ABS(D26)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>5.0247893476160668</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L26">
@@ -6588,35 +6967,35 @@
         <v>3.7821741666666853E-2</v>
       </c>
       <c r="W26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.0244643023397502E-2</v>
       </c>
       <c r="X26">
+        <f t="shared" si="11"/>
+        <v>6.7492163562872812E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="12"/>
+        <v>7.9144015750581831E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="6"/>
+        <v>11.783203556823546</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="7"/>
+        <v>11.696404259461849</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="8"/>
+        <v>12.042227920318329</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="9"/>
-        <v>6.7492163562872812E-2</v>
-      </c>
-      <c r="Y26">
+        <v>-1.6100530911346712E-3</v>
+      </c>
+      <c r="AH26">
         <f t="shared" si="10"/>
-        <v>7.9144015750581831E-2</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="4"/>
-        <v>11.783203556823546</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="5"/>
-        <v>11.696404259461849</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="6"/>
-        <v>12.042227920318329</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="7"/>
-        <v>-1.6100530911346712E-3</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="8"/>
         <v>-2.2515650309988637E-3</v>
       </c>
       <c r="AI26">
@@ -6651,15 +7030,15 @@
         <v>-3.9828988888888972E-2</v>
       </c>
       <c r="I27" s="2">
-        <f>H27+3*G27*1.66</f>
+        <f t="shared" si="0"/>
         <v>-4.0006316209551807E-3</v>
       </c>
       <c r="J27" s="3">
-        <f>5*LOG(2*ABS(I27)*1000/(0.45*ABS(D27)^(1/3)+0.001*ABS(D27)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>5.5607803242633995</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L27">
@@ -6687,35 +7066,35 @@
         <v>4.1300841666666699E-2</v>
       </c>
       <c r="W27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.2662192897553943E-2</v>
       </c>
       <c r="X27">
+        <f t="shared" si="11"/>
+        <v>7.2088962391365391E-2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="12"/>
+        <v>7.3061747534689775E-2</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="6"/>
+        <v>12.136672119052642</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="7"/>
+        <v>11.839481380693648</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>11.868587786403076</v>
+      </c>
+      <c r="AG27">
         <f t="shared" si="9"/>
-        <v>7.2088962391365391E-2</v>
-      </c>
-      <c r="Y27">
+        <v>2.2889883593434912E-3</v>
+      </c>
+      <c r="AH27">
         <f t="shared" si="10"/>
-        <v>7.3061747534689775E-2</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="4"/>
-        <v>12.136672119052642</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="5"/>
-        <v>11.839481380693648</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="6"/>
-        <v>11.868587786403076</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" si="7"/>
-        <v>2.2889883593434912E-3</v>
-      </c>
-      <c r="AH27">
-        <f t="shared" si="8"/>
         <v>3.3013183199646044E-4</v>
       </c>
       <c r="AI27">
@@ -6750,15 +7129,15 @@
         <v>-2.5159663888890904E-2</v>
       </c>
       <c r="I28" s="2">
-        <f>H28+3*G28*1.66</f>
+        <f t="shared" si="0"/>
         <v>1.8783857865356891E-2</v>
       </c>
       <c r="J28" s="3">
-        <f>5*LOG(2*ABS(I28)*1000/(0.45*ABS(D28)^(1/3)+0.001*ABS(D28)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>8.9190614745160079</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.550137507823191</v>
       </c>
       <c r="L28">
@@ -6786,35 +7165,35 @@
         <v>3.1434441666664981E-2</v>
       </c>
       <c r="W28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.251656634642593E-2</v>
       </c>
       <c r="X28">
+        <f t="shared" si="11"/>
+        <v>6.8706912908957529E-2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="12"/>
+        <v>6.8356262870343493E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>11.151619123704336</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="7"/>
+        <v>11.735139685637307</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="8"/>
+        <v>11.724029063968283</v>
+      </c>
+      <c r="AG28">
         <f t="shared" si="9"/>
-        <v>6.8706912908957529E-2</v>
-      </c>
-      <c r="Y28">
+        <v>-9.9530218017117485E-4</v>
+      </c>
+      <c r="AH28">
         <f t="shared" si="10"/>
-        <v>6.8356262870343493E-2</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="4"/>
-        <v>11.151619123704336</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="5"/>
-        <v>11.735139685637307</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="6"/>
-        <v>11.724029063968283</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="7"/>
-        <v>-9.9530218017117485E-4</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="8"/>
         <v>1.665038495036149E-3</v>
       </c>
       <c r="AI28">
@@ -6849,15 +7228,15 @@
         <v>-0.1212081305555559</v>
       </c>
       <c r="I29" s="2">
-        <f>H29+3*G29*1.66</f>
+        <f t="shared" si="0"/>
         <v>-6.989372980500444E-2</v>
       </c>
       <c r="J29" s="3">
-        <f>5*LOG(2*ABS(I29)*1000/(0.45*ABS(D29)^(1/3)+0.001*ABS(D29)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.225820129454469</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.003629045663764</v>
       </c>
       <c r="L29">
@@ -6885,35 +7264,35 @@
         <v>0.11308094166666738</v>
       </c>
       <c r="W29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17227037745500981</v>
       </c>
       <c r="X29">
+        <f t="shared" si="11"/>
+        <v>0.17076589042054249</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="12"/>
+        <v>0.14961689956355861</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="6"/>
+        <v>14.184682072084099</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="7"/>
+        <v>14.165634680663207</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="8"/>
+        <v>13.878532299826178</v>
+      </c>
+      <c r="AG29">
         <f t="shared" si="9"/>
-        <v>0.17076589042054249</v>
-      </c>
-      <c r="Y29">
+        <v>1.8494115578550577E-3</v>
+      </c>
+      <c r="AH29">
         <f t="shared" si="10"/>
-        <v>0.14961689956355861</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="4"/>
-        <v>14.184682072084099</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="5"/>
-        <v>14.165634680663207</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="6"/>
-        <v>13.878532299826178</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="7"/>
-        <v>1.8494115578550577E-3</v>
-      </c>
-      <c r="AH29">
-        <f t="shared" si="8"/>
         <v>2.0503679766366335E-3</v>
       </c>
       <c r="AI29">
@@ -6948,15 +7327,15 @@
         <v>-0.11874970555555642</v>
       </c>
       <c r="I30" s="2">
-        <f>H30+3*G30*1.66</f>
+        <f t="shared" si="0"/>
         <v>-7.3322573911987654E-2</v>
       </c>
       <c r="J30" s="3">
-        <f>5*LOG(2*ABS(I30)*1000/(0.45*ABS(D30)^(1/3)+0.001*ABS(D30)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.32981755571209</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.003629045663764</v>
       </c>
       <c r="L30">
@@ -6984,35 +7363,35 @@
         <v>0.11410603333333391</v>
       </c>
       <c r="W30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15990044161265821</v>
       </c>
       <c r="X30">
+        <f t="shared" si="11"/>
+        <v>0.15416804627270975</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="12"/>
+        <v>0.16804421565585614</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="6"/>
+        <v>14.022877361570542</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="7"/>
+        <v>13.943600889417278</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="8"/>
+        <v>14.130746885508621</v>
+      </c>
+      <c r="AG30">
         <f t="shared" si="9"/>
-        <v>0.15416804627270975</v>
-      </c>
-      <c r="Y30">
+        <v>-3.4133281211241378E-3</v>
+      </c>
+      <c r="AH30">
         <f t="shared" si="10"/>
-        <v>0.16804421565585614</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="4"/>
-        <v>14.022877361570542</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="5"/>
-        <v>13.943600889417278</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="6"/>
-        <v>14.130746885508621</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="7"/>
-        <v>-3.4133281211241378E-3</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="8"/>
         <v>-3.8057401706453131E-3</v>
       </c>
       <c r="AI30">
@@ -7047,15 +7426,15 @@
         <v>3.9776133333334407E-2</v>
       </c>
       <c r="I31" s="2">
-        <f>H31+3*G31*1.66</f>
+        <f t="shared" si="0"/>
         <v>8.0408293644494575E-2</v>
       </c>
       <c r="J31" s="3">
-        <f>5*LOG(2*ABS(I31)*1000/(0.45*ABS(D31)^(1/3)+0.001*ABS(D31)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.452798021798262</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293791844822</v>
       </c>
       <c r="L31">
@@ -7083,35 +7462,35 @@
         <v>4.7577808333334026E-2</v>
       </c>
       <c r="W31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.429183663938586E-2</v>
       </c>
       <c r="X31">
+        <f t="shared" si="11"/>
+        <v>7.6060151227993353E-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="12"/>
+        <v>7.5639288103623428E-2</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="6"/>
+        <v>11.599966460139674</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="7"/>
+        <v>12.332079714696855</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="8"/>
+        <v>12.320030955499167</v>
+      </c>
+      <c r="AG31">
         <f t="shared" si="9"/>
-        <v>7.6060151227993353E-2</v>
-      </c>
-      <c r="Y31">
+        <v>-1.6692707090166896E-3</v>
+      </c>
+      <c r="AH31">
         <f t="shared" si="10"/>
-        <v>7.5639288103623428E-2</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="4"/>
-        <v>11.599966460139674</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="5"/>
-        <v>12.332079714696855</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="6"/>
-        <v>12.320030955499167</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="7"/>
-        <v>-1.6692707090166896E-3</v>
-      </c>
-      <c r="AH31">
-        <f t="shared" si="8"/>
         <v>2.166948753220101E-3</v>
       </c>
       <c r="AI31">
@@ -7146,15 +7525,15 @@
         <v>4.4403052777778562E-2</v>
       </c>
       <c r="I32" s="2">
-        <f>H32+3*G32*1.66</f>
+        <f t="shared" si="0"/>
         <v>7.3627262365402013E-2</v>
       </c>
       <c r="J32" s="3">
-        <f>5*LOG(2*ABS(I32)*1000/(0.45*ABS(D32)^(1/3)+0.001*ABS(D32)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>12.261486663619815</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293400181226</v>
       </c>
       <c r="L32">
@@ -7182,35 +7561,35 @@
         <v>4.0978449999999889E-2</v>
       </c>
       <c r="W32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7413988346226486E-2</v>
       </c>
       <c r="X32">
+        <f t="shared" si="11"/>
+        <v>7.8570231478512068E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="12"/>
+        <v>6.7736587362038886E-2</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="6"/>
+        <v>12.070043508321357</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="7"/>
+        <v>12.402583563366077</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="8"/>
+        <v>12.080409963498036</v>
+      </c>
+      <c r="AG32">
         <f t="shared" si="9"/>
-        <v>7.8570231478512068E-2</v>
-      </c>
-      <c r="Y32">
+        <v>-1.1785255721175284E-3</v>
+      </c>
+      <c r="AH32">
         <f t="shared" si="10"/>
-        <v>6.7736587362038886E-2</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="4"/>
-        <v>12.070043508321357</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="5"/>
-        <v>12.402583563366077</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="6"/>
-        <v>12.080409963498036</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="7"/>
-        <v>-1.1785255721175284E-3</v>
-      </c>
-      <c r="AH32">
-        <f t="shared" si="8"/>
         <v>1.2261634772033582E-3</v>
       </c>
       <c r="AI32">
@@ -7245,15 +7624,15 @@
         <v>-5.5350908333332782E-2</v>
       </c>
       <c r="I33" s="2">
-        <f>H33+3*G33*1.66</f>
+        <f t="shared" si="0"/>
         <v>2.2956776087035349E-3</v>
       </c>
       <c r="J33" s="3">
-        <f>5*LOG(2*ABS(I33)*1000/(0.45*ABS(D33)^(1/3)+0.001*ABS(D33)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>4.8646277067689931</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.060073215386453</v>
       </c>
       <c r="L33">
@@ -7281,35 +7660,35 @@
         <v>4.4927858333332793E-2</v>
       </c>
       <c r="W33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.4572882589171209E-2</v>
       </c>
       <c r="X33">
+        <f t="shared" si="11"/>
+        <v>0.10739421895936407</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="12"/>
+        <v>9.4042555015990376E-2</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="6"/>
+        <v>12.938906348232667</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="7"/>
+        <v>13.21497773479159</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="8"/>
+        <v>12.926695314581632</v>
+      </c>
+      <c r="AG33">
         <f t="shared" si="9"/>
-        <v>0.10739421895936407</v>
-      </c>
-      <c r="Y33">
+        <v>-3.5268887068581646E-3</v>
+      </c>
+      <c r="AH33">
         <f t="shared" si="10"/>
-        <v>9.4042555015990376E-2</v>
-      </c>
-      <c r="AA33">
-        <f t="shared" si="4"/>
-        <v>12.938906348232667</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="5"/>
-        <v>13.21497773479159</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="6"/>
-        <v>12.926695314581632</v>
-      </c>
-      <c r="AG33">
-        <f t="shared" si="7"/>
-        <v>-3.5268887068581646E-3</v>
-      </c>
-      <c r="AH33">
-        <f t="shared" si="8"/>
         <v>3.5491421025388506E-5</v>
       </c>
       <c r="AI33">
@@ -7344,15 +7723,15 @@
         <v>-6.4001369444444123E-2</v>
       </c>
       <c r="I34" s="2">
-        <f>H34+3*G34*1.66</f>
+        <f t="shared" si="0"/>
         <v>-1.226516989661295E-2</v>
       </c>
       <c r="J34" s="3">
-        <f>5*LOG(2*ABS(I34)*1000/(0.45*ABS(D34)^(1/3)+0.001*ABS(D34)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>8.5034410574504804</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.060073215386453</v>
       </c>
       <c r="L34">
@@ -7380,35 +7759,35 @@
         <v>5.5321191666666714E-2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.6835498360061445E-2</v>
       </c>
       <c r="X34">
+        <f t="shared" si="11"/>
+        <v>0.12482037262144074</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="12"/>
+        <v>9.3500274588660864E-2</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="6"/>
+        <v>12.990246175264126</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="7"/>
+        <v>13.541500589033223</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="8"/>
+        <v>12.91413764687017</v>
+      </c>
+      <c r="AG34">
         <f t="shared" si="9"/>
-        <v>0.12482037262144074</v>
-      </c>
-      <c r="Y34">
+        <v>-1.9427479040024787E-3</v>
+      </c>
+      <c r="AH34">
         <f t="shared" si="10"/>
-        <v>9.3500274588660864E-2</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="4"/>
-        <v>12.990246175264126</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="5"/>
-        <v>13.541500589033223</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="6"/>
-        <v>12.91413764687017</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="7"/>
-        <v>-1.9427479040024787E-3</v>
-      </c>
-      <c r="AH34">
-        <f t="shared" si="8"/>
         <v>3.6726251069837011E-3</v>
       </c>
       <c r="AI34">
@@ -7443,15 +7822,15 @@
         <v>2.3623008333331974E-2</v>
       </c>
       <c r="I35" s="2">
-        <f>H35+3*G35*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.11275577301776124</v>
       </c>
       <c r="J35" s="3">
-        <f>5*LOG(2*ABS(I35)*1000/(0.45*ABS(D35)^(1/3)+0.001*ABS(D35)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>13.186987651892833</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293718407884</v>
       </c>
       <c r="L35">
@@ -7479,35 +7858,35 @@
         <v>4.287108333334011E-3</v>
       </c>
       <c r="W35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.7180890006248992E-2</v>
       </c>
       <c r="X35">
+        <f t="shared" si="11"/>
+        <v>0.10858297109915858</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="12"/>
+        <v>6.3343255900772541E-2</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="6"/>
+        <v>11.71254827220562</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="7"/>
+        <v>13.105102322685147</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="8"/>
+        <v>11.93479563210626</v>
+      </c>
+      <c r="AG35">
         <f t="shared" si="9"/>
-        <v>0.10858297109915858</v>
-      </c>
-      <c r="Y35">
+        <v>-7.4304516521799249E-3</v>
+      </c>
+      <c r="AH35">
         <f t="shared" si="10"/>
-        <v>6.3343255900772541E-2</v>
-      </c>
-      <c r="AA35">
-        <f t="shared" si="4"/>
-        <v>11.71254827220562</v>
-      </c>
-      <c r="AB35">
-        <f t="shared" si="5"/>
-        <v>13.105102322685147</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="6"/>
-        <v>11.93479563210626</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="7"/>
-        <v>-7.4304516521799249E-3</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="8"/>
         <v>3.6291764119918274E-3</v>
       </c>
       <c r="AI35">
@@ -7542,15 +7921,15 @@
         <v>1.1267258333332641E-2</v>
       </c>
       <c r="I36" s="2">
-        <f>H36+3*G36*1.66</f>
+        <f t="shared" si="0"/>
         <v>0.12244222173881454</v>
       </c>
       <c r="J36" s="3">
-        <f>5*LOG(2*ABS(I36)*1000/(0.45*ABS(D36)^(1/3)+0.001*ABS(D36)),10)+1</f>
+        <f t="shared" si="1"/>
         <v>13.365949406970129</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.926293400181226</v>
       </c>
       <c r="L36">
@@ -7578,35 +7957,35 @@
         <v>3.7472791666666616E-2</v>
       </c>
       <c r="W36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6309752160445024E-2</v>
       </c>
       <c r="X36">
+        <f t="shared" si="11"/>
+        <v>8.3423248697341329E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="12"/>
+        <v>9.2220258407025718E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="6"/>
+        <v>10.026877185296536</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="7"/>
+        <v>12.532728891615246</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="8"/>
+        <v>12.750425074210408</v>
+      </c>
+      <c r="AG36">
         <f t="shared" si="9"/>
-        <v>8.3423248697341329E-2</v>
-      </c>
-      <c r="Y36">
+        <v>-7.2331689250161868E-3</v>
+      </c>
+      <c r="AH36">
         <f t="shared" si="10"/>
-        <v>9.2220258407025718E-2</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" si="4"/>
-        <v>10.026877185296536</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="5"/>
-        <v>12.532728891615246</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="6"/>
-        <v>12.750425074210408</v>
-      </c>
-      <c r="AG36">
-        <f t="shared" si="7"/>
-        <v>-7.2331689250161868E-3</v>
-      </c>
-      <c r="AH36">
-        <f t="shared" si="8"/>
         <v>4.9725566178678189E-3</v>
       </c>
       <c r="AI36">
@@ -7634,6 +8013,12 @@
       </c>
     </row>
     <row r="38" spans="1:35">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
       <c r="Z38">
         <v>4</v>
       </c>
@@ -7655,6 +8040,12 @@
       </c>
     </row>
     <row r="39" spans="1:35">
+      <c r="J39">
+        <v>20</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
       <c r="Q39" s="9"/>
       <c r="Z39">
         <v>5</v>
@@ -7669,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <f t="shared" ref="AE39:AE53" si="11">AA39+AB39+AC39</f>
+        <f t="shared" ref="AE39:AE53" si="13">AA39+AB39+AC39</f>
         <v>0</v>
       </c>
     </row>
@@ -7694,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7719,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7744,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -7769,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -7794,7 +8185,7 @@
         <v>2</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -7819,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
     </row>
@@ -7844,7 +8235,7 @@
         <v>10</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
     </row>
@@ -7869,7 +8260,7 @@
         <v>10</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
     </row>
@@ -7894,7 +8285,7 @@
         <v>7</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
@@ -7919,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
@@ -7944,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
@@ -7969,7 +8360,7 @@
         <v>2</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
     </row>
@@ -7994,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
     </row>
@@ -8019,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -8206,7 +8597,6 @@
     <sortCondition ref="U40"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12215,7 +12605,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DataFraIT.xlsx
+++ b/DataFraIT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="31480" tabRatio="500" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rotor" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
   <si>
     <t>planid</t>
   </si>
@@ -462,6 +462,27 @@
   <si>
     <t>90% probability</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>sorted ITG</t>
+  </si>
+  <si>
+    <t>Spec ITG</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Normal dist</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +493,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,8 +538,20 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +579,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -650,6 +701,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1150,11 +1206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088810552"/>
-        <c:axId val="2088807560"/>
+        <c:axId val="2074820184"/>
+        <c:axId val="2074823160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088810552"/>
+        <c:axId val="2074820184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088807560"/>
+        <c:crossAx val="2074823160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088807560"/>
+        <c:axId val="2074823160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088810552"/>
+        <c:crossAx val="2074820184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1600,11 +1656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107891560"/>
-        <c:axId val="2107956536"/>
+        <c:axId val="2078124456"/>
+        <c:axId val="2078127432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2107891560"/>
+        <c:axId val="2078124456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107956536"/>
+        <c:crossAx val="2078127432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1621,7 +1677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107956536"/>
+        <c:axId val="2078127432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,14 +1688,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107891560"/>
+        <c:crossAx val="2078124456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2059,11 +2114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115923720"/>
-        <c:axId val="-2128957256"/>
+        <c:axId val="2078159528"/>
+        <c:axId val="2078165112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115923720"/>
+        <c:axId val="2078159528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,13 +2144,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128957256"/>
+        <c:crossAx val="2078165112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2103,7 +2157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128957256"/>
+        <c:axId val="2078165112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,21 +2185,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115923720"/>
+        <c:crossAx val="2078159528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2290,11 +2342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112194600"/>
-        <c:axId val="2111858376"/>
+        <c:axId val="2071057400"/>
+        <c:axId val="2071060376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112194600"/>
+        <c:axId val="2071057400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111858376"/>
+        <c:crossAx val="2071060376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2311,7 +2363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111858376"/>
+        <c:axId val="2071060376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,14 +2374,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112194600"/>
+        <c:crossAx val="2071057400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2439,11 +2490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118314808"/>
-        <c:axId val="2102347528"/>
+        <c:axId val="2028122040"/>
+        <c:axId val="2028124984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118314808"/>
+        <c:axId val="2028122040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2452,7 +2503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102347528"/>
+        <c:crossAx val="2028124984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2460,7 +2511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102347528"/>
+        <c:axId val="2028124984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,14 +2522,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118314808"/>
+        <c:crossAx val="2028122040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2653,11 +2703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109135160"/>
-        <c:axId val="2109107432"/>
+        <c:axId val="2028151848"/>
+        <c:axId val="2028154824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109135160"/>
+        <c:axId val="2028151848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2716,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109107432"/>
+        <c:crossAx val="2028154824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2674,7 +2724,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109107432"/>
+        <c:axId val="2028154824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,14 +2735,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109135160"/>
+        <c:crossAx val="2028151848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2874,11 +2923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117968136"/>
-        <c:axId val="2117917224"/>
+        <c:axId val="2028162904"/>
+        <c:axId val="2028165960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117968136"/>
+        <c:axId val="2028162904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,12 +2937,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117917224"/>
+        <c:crossAx val="2028165960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117917224"/>
+        <c:axId val="2028165960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,14 +2953,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117968136"/>
+        <c:crossAx val="2028162904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2943,15 +2991,14 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>total!$D$2:$D$18</c:f>
@@ -3012,7 +3059,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3022,13 +3068,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2126676824"/>
-        <c:axId val="2117955704"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="2069768024"/>
+        <c:axId val="2069771032"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2126676824"/>
+        <c:axId val="2069768024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117955704"/>
+        <c:crossAx val="2069771032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3045,7 +3090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117955704"/>
+        <c:axId val="2069771032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3056,7 +3101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126676824"/>
+        <c:crossAx val="2069768024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3308,11 +3353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123160328"/>
-        <c:axId val="-2128545336"/>
+        <c:axId val="2069797368"/>
+        <c:axId val="2069800392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123160328"/>
+        <c:axId val="2069797368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3322,12 +3367,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128545336"/>
+        <c:crossAx val="2069800392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128545336"/>
+        <c:axId val="2069800392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,7 +3383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123160328"/>
+        <c:crossAx val="2069797368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4333,11 +4378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123124520"/>
-        <c:axId val="2122829016"/>
+        <c:axId val="2069917560"/>
+        <c:axId val="2069923048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123124520"/>
+        <c:axId val="2069917560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0"/>
@@ -4367,12 +4412,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122829016"/>
+        <c:crossAx val="2069923048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122829016"/>
+        <c:axId val="2069923048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -4403,7 +4448,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123124520"/>
+        <c:crossAx val="2069917560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5252,11 +5297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124148328"/>
-        <c:axId val="2116077288"/>
+        <c:axId val="2069952792"/>
+        <c:axId val="2069958328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124148328"/>
+        <c:axId val="2069952792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -5286,12 +5331,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116077288"/>
+        <c:crossAx val="2069958328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116077288"/>
+        <c:axId val="2069958328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0"/>
@@ -5322,7 +5367,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124148328"/>
+        <c:crossAx val="2069952792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5758,11 +5803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088777064"/>
-        <c:axId val="2088774072"/>
+        <c:axId val="2077869256"/>
+        <c:axId val="2077872232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088777064"/>
+        <c:axId val="2077869256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,7 +5816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088774072"/>
+        <c:crossAx val="2077872232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5779,7 +5824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088774072"/>
+        <c:axId val="2077872232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5790,14 +5835,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088777064"/>
+        <c:crossAx val="2077869256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5829,150 +5873,6 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Normal distribution</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>total!$C$2:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>total!$D$2:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2115067864"/>
-        <c:axId val="2115223480"/>
-      </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -6589,11 +6489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112710200"/>
-        <c:axId val="-2112716488"/>
+        <c:axId val="2066762120"/>
+        <c:axId val="2066937848"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2115067864"/>
+        <c:axId val="2066762120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,7 +6522,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115223480"/>
+        <c:crossAx val="2066937848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6630,7 +6530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115223480"/>
+        <c:axId val="2066937848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6661,55 +6561,9 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115067864"/>
+        <c:crossAx val="2066762120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2112716488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112710200"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2112710200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20.0"/>
-          <c:min val="4.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2112716488"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7359,11 +7213,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105020056"/>
-        <c:axId val="-2107261240"/>
+        <c:axId val="2078195464"/>
+        <c:axId val="2078198392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105020056"/>
+        <c:axId val="2078195464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7373,12 +7227,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2107261240"/>
+        <c:crossAx val="2078198392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2107261240"/>
+        <c:axId val="2078198392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7389,8 +7243,822 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105020056"/>
+        <c:crossAx val="2078195464"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>total!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2077031112"/>
+        <c:axId val="2077011896"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fit. Norm. Dist.</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>total!$C$20:$C$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>total!$D$20:$D$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>2.66224331939383E-18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05379758160554E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.07025509841656E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.53405538715328E-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6417706998071E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0246259624609E-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.08972111743265E-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.42252619689034E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.07723636772044E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.62791964583517E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.34288680097359E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.58449442723314E-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.81249637608637E-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.30440621301178E-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.63259113019107E-11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8627835490503E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.10500934780732E-10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.36516664673855E-9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.56229414023204E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.07045062384879E-9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25363163471098E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.46376456003159E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.29257574765806E-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.98383640997195E-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7212336778938E-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.47733150770162E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.16855978248043E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.63133290017405E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.35423718698217E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6986317131161E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.24744002892389E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.95649151181433E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00018434024124671</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000333034292412797</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000587100889160377</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00100993052998112</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00169521678437255</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00277660413494362</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00443769722843491</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00692080081419468</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0105319796606775</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0156393483459748</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0226611671510936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0320406173275089</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0442053115415852</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0595117903819787</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0781783600658609</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.100213233616368</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.125348336689283</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.15299141266736</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18220928914814</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.211752698051116</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.240127760838922</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.265711755944453</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.28690237768163</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.302282151882068</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31077483368745</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.311769882977537</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.30519502996622</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.291524952783947</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.271724620051582</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.247136690385347</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.21933121394143</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.189940964091835</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.160506200216403</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.132348788037755</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.106488596611267</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0836067262465694</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0640522385899304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0478831140627999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0349289427822915</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0248624243334308</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.01726857446909</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0117037350304296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.00774011572095953</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.00499488399620257</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.00314527294143627</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.00193261902662596</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.00115874838722967</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.000677933373916012</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.000387025754179515</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.000215599473854813</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.000117195384300765</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.21624750654178E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.21737044718146E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6249081552782E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.00776921365948E-6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.85078487800849E-6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.80693257338875E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.27350656698271E-7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.69651322834954E-7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.61157266792423E-7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.85586885500724E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.84596850350334E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.15279652093262E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.55648772457883E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2095722120"/>
+        <c:axId val="2095722632"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="2077031112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2077011896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077011896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2077031112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2095722632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095722120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2095722120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095722632"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -7646,11 +8314,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093330856"/>
-        <c:axId val="2094343768"/>
+        <c:axId val="2077904376"/>
+        <c:axId val="2077909848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093330856"/>
+        <c:axId val="2077904376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7672,13 +8340,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094343768"/>
+        <c:crossAx val="2077909848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7686,7 +8353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094343768"/>
+        <c:axId val="2077909848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7714,21 +8381,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093330856"/>
+        <c:crossAx val="2077904376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8017,11 +8682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094370216"/>
-        <c:axId val="2094373192"/>
+        <c:axId val="2077935256"/>
+        <c:axId val="2077938232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094370216"/>
+        <c:axId val="2077935256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8030,7 +8695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094373192"/>
+        <c:crossAx val="2077938232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8038,7 +8703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094373192"/>
+        <c:axId val="2077938232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8049,14 +8714,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094370216"/>
+        <c:crossAx val="2077935256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8345,11 +9009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094399528"/>
-        <c:axId val="2094402504"/>
+        <c:axId val="2077964856"/>
+        <c:axId val="2077967832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094399528"/>
+        <c:axId val="2077964856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8358,7 +9022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094402504"/>
+        <c:crossAx val="2077967832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8366,7 +9030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094402504"/>
+        <c:axId val="2077967832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8377,14 +9041,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094399528"/>
+        <c:crossAx val="2077964856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8494,11 +9157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094425768"/>
-        <c:axId val="2094428408"/>
+        <c:axId val="2077991544"/>
+        <c:axId val="2077994184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094425768"/>
+        <c:axId val="2077991544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8507,7 +9170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094428408"/>
+        <c:crossAx val="2077994184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8515,7 +9178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094428408"/>
+        <c:axId val="2077994184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8526,14 +9189,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094425768"/>
+        <c:crossAx val="2077991544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8944,11 +9606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094457400"/>
-        <c:axId val="2094460376"/>
+        <c:axId val="2078023560"/>
+        <c:axId val="2078026536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094457400"/>
+        <c:axId val="2078023560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8957,7 +9619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094460376"/>
+        <c:crossAx val="2078026536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8965,7 +9627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094460376"/>
+        <c:axId val="2078026536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8976,14 +9638,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094457400"/>
+        <c:crossAx val="2078023560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9302,11 +9963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094488712"/>
-        <c:axId val="2094491704"/>
+        <c:axId val="2078054856"/>
+        <c:axId val="2078057848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094488712"/>
+        <c:axId val="2078054856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.0"/>
@@ -9318,12 +9979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094491704"/>
+        <c:crossAx val="2078057848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094491704"/>
+        <c:axId val="2078057848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8.0"/>
@@ -9335,14 +9996,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094488712"/>
+        <c:crossAx val="2078054856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9763,11 +10423,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101781528"/>
-        <c:axId val="2045028328"/>
+        <c:axId val="2078089032"/>
+        <c:axId val="2078094488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101781528"/>
+        <c:axId val="2078089032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9789,13 +10449,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2045028328"/>
+        <c:crossAx val="2078094488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9803,7 +10462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2045028328"/>
+        <c:axId val="2078094488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9826,21 +10485,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101781528"/>
+        <c:crossAx val="2078089032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10470,15 +11127,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10492,6 +11149,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16041,7 +16730,6 @@
     <sortCondition ref="V40"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -20050,7 +20738,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21227,7 +21914,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -21957,7 +22643,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21968,10 +22653,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB128"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21980,8 +22666,34 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:25" s="19" customFormat="1" ht="36">
+      <c r="A1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="2" spans="1:25">
-      <c r="A2">
+      <c r="A2" s="15">
         <f>Rotor!AB2</f>
         <v>13.496743801211975</v>
       </c>
@@ -21992,6 +22704,10 @@
         <f t="array" ref="D2:D18">FREQUENCY(A2:A128,C2:C18)</f>
         <v>0</v>
       </c>
+      <c r="E2">
+        <f>C2-0.5</f>
+        <v>3.5</v>
+      </c>
       <c r="F2" t="s">
         <v>144</v>
       </c>
@@ -22016,13 +22732,13 @@
         <f>L2/115</f>
         <v>8.6956521739130436E-3</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="4">
         <f>Rotor!K2</f>
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3">
+      <c r="A3" s="15">
         <f>Rotor!AB3</f>
         <v>13.234212255405712</v>
       </c>
@@ -22031,6 +22747,10 @@
       </c>
       <c r="D3">
         <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">C3-0.5</f>
+        <v>4.5</v>
       </c>
       <c r="F3">
         <f>AVERAGE(A2:A128)</f>
@@ -22040,11 +22760,11 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I31" si="0">_xlfn.NORM.INV(H3/30,$F$3,$F$6)</f>
+        <f t="shared" ref="I3:I30" si="1">_xlfn.NORM.INV(H3/30,$F$3,$F$6)</f>
         <v>10.408499587167276</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J30" si="1">H3/30</f>
+        <f t="shared" ref="J3:J30" si="2">H3/30</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="L3">
@@ -22054,16 +22774,16 @@
         <v>9.4797408119862183</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="2">L3/115</f>
+        <f t="shared" ref="N3:N66" si="3">L3/115</f>
         <v>1.7391304347826087E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="4">
         <f>Rotor!K3</f>
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4">
+      <c r="A4" s="15">
         <f>Rotor!AB4</f>
         <v>12.861797323946252</v>
       </c>
@@ -22073,15 +22793,19 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.688947006767618</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="L4">
@@ -22091,16 +22815,16 @@
         <v>9.5957377704295279</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6086956521739129E-2</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="4">
         <f>Rotor!K4</f>
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5">
+      <c r="A5" s="15">
         <f>Rotor!AB5</f>
         <v>12.603452870485633</v>
       </c>
@@ -22110,6 +22834,10 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
       <c r="F5" t="s">
         <v>59</v>
       </c>
@@ -22117,11 +22845,11 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.907112361468407</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="L5">
@@ -22131,16 +22859,16 @@
         <v>9.7031906057283042</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4782608695652174E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="4">
         <f>Rotor!K5</f>
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6">
+      <c r="A6" s="15">
         <f>Rotor!AB6</f>
         <v>12.074818667353316</v>
       </c>
@@ -22149,6 +22877,10 @@
       </c>
       <c r="D6">
         <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
       </c>
       <c r="F6">
         <f>STDEV(A2:A128)</f>
@@ -22158,11 +22890,11 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.090236989513848</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L6">
@@ -22172,16 +22904,16 @@
         <v>9.7737929949519682</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="4">
         <f>Rotor!K6</f>
         <v>13.348884605174961</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7">
+      <c r="A7" s="15">
         <f>Rotor!AB7</f>
         <v>11.466465117842951</v>
       </c>
@@ -22191,15 +22923,19 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.250942472465097</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="L7">
@@ -22209,21 +22945,26 @@
         <v>9.8878651681195091</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2173913043478258E-2</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="4">
         <f>Rotor!K7</f>
         <v>13.348884605174961</v>
       </c>
     </row>
     <row r="8" spans="1:25">
+      <c r="A8" s="15"/>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
       <c r="F8" t="s">
         <v>145</v>
       </c>
@@ -22231,11 +22972,11 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.396200354366259</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="L8">
@@ -22245,20 +22986,25 @@
         <v>10.026877185296536</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0869565217391307E-2</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="4">
         <f>Rotor!K8</f>
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="9" spans="1:25">
+      <c r="A9" s="15"/>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
         <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
       </c>
       <c r="F9">
         <f>_xlfn.NORM.INV(0.9,F3,F6)</f>
@@ -22268,11 +23014,11 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.530318265085404</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="L9">
@@ -22282,30 +23028,35 @@
         <v>10.568076234459925</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9565217391304349E-2</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="4">
         <f>Rotor!K9</f>
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="10" spans="1:25">
+      <c r="A10" s="15"/>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.656180742698345</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="L10">
@@ -22315,30 +23066,35 @@
         <v>10.662495228225108</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="4">
         <f>Rotor!K10</f>
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="11" spans="1:25">
+      <c r="A11" s="15"/>
       <c r="C11">
         <v>13</v>
       </c>
       <c r="D11">
         <v>38</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.775844965347517</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L11">
@@ -22348,16 +23104,16 @@
         <v>10.680948334721215</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="4">
         <f>Rotor!K11</f>
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12">
+      <c r="A12" s="15">
         <f>Rotor!AB12</f>
         <v>11.125253725689948</v>
       </c>
@@ -22367,15 +23123,19 @@
       <c r="D12">
         <v>27</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
       <c r="H12">
         <v>11</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.890858269657475</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="L12">
@@ -22385,16 +23145,16 @@
         <v>10.796100618474911</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5652173913043481E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="4">
         <f>Rotor!K12</f>
         <v>14.482093246661224</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13">
+      <c r="A13" s="15">
         <f>Rotor!AB13</f>
         <v>10.988442652203105</v>
       </c>
@@ -22404,15 +23164,19 @@
       <c r="D13">
         <v>4</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
       <c r="H13">
         <v>12</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.002441902865963</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="L13">
@@ -22422,16 +23186,16 @@
         <v>10.868386449909108</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10434782608695652</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="4">
         <f>Rotor!K13</f>
         <v>14.482093246661224</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14">
+      <c r="A14" s="15">
         <f>Rotor!AB14</f>
         <v>10.942076279082455</v>
       </c>
@@ -22441,15 +23205,19 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
       <c r="H14">
         <v>13</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.111605218761843</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="L14">
@@ -22459,16 +23227,16 @@
         <v>10.942076279082455</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11304347826086956</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="4">
         <f>Rotor!K14</f>
         <v>10.979477825570713</v>
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15">
+      <c r="A15" s="15">
         <f>Rotor!AB15</f>
         <v>9.4797408119862183</v>
       </c>
@@ -22478,15 +23246,19 @@
       <c r="D15">
         <v>2</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.219221745321812</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="L15">
@@ -22496,16 +23268,16 @@
         <v>10.964968826618158</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12173913043478261</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="4">
         <f>Rotor!K15</f>
         <v>12.187972445717499</v>
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16">
+      <c r="A16" s="15">
         <f>Rotor!AB16</f>
         <v>8.1753533744715803</v>
       </c>
@@ -22515,15 +23287,19 @@
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
       <c r="H16">
         <v>15</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.326083881748824</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="L16">
@@ -22533,16 +23309,16 @@
         <v>10.964968826618158</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.13043478260869565</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="4">
         <f>Rotor!K16</f>
         <v>12.187972445717499</v>
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17">
+      <c r="A17" s="15">
         <f>Rotor!AB17</f>
         <v>12.966788461602857</v>
       </c>
@@ -22552,15 +23328,19 @@
       <c r="D17">
         <v>0</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
       <c r="H17">
         <v>16</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.432946018175835</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="L17">
@@ -22570,16 +23350,16 @@
         <v>10.988442652203105</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1391304347826087</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="4">
         <f>Rotor!K17</f>
         <v>11.252200283951151</v>
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18">
+      <c r="A18" s="15">
         <f>Rotor!AB18</f>
         <v>12.405542452129644</v>
       </c>
@@ -22589,15 +23369,19 @@
       <c r="D18">
         <v>0</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
       <c r="H18">
         <v>17</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.540562544735804</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="L18">
@@ -22607,28 +23391,31 @@
         <v>11.102604896375318</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14782608695652175</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="4">
         <f>Rotor!K18</f>
         <v>11.252200283951151</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
-      <c r="A19">
+    <row r="19" spans="1:28" ht="30">
+      <c r="A19" s="15">
         <f>Rotor!AB19</f>
         <v>13.340161128207022</v>
       </c>
+      <c r="C19" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="H19">
         <v>18</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.649725860631685</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="L19">
@@ -22638,16 +23425,16 @@
         <v>11.125253725689948</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15652173913043479</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="4">
         <f>Rotor!K19</f>
         <v>10.717863556640458</v>
       </c>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20">
+      <c r="A20" s="15">
         <f>Rotor!AB20</f>
         <v>12.385485669638566</v>
       </c>
@@ -22662,11 +23449,11 @@
         <v>19</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.761309493840173</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6333333333333333</v>
       </c>
       <c r="L20">
@@ -22676,16 +23463,16 @@
         <v>11.151619123704336</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16521739130434782</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="4">
         <f>Rotor!K20</f>
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21">
+      <c r="A21" s="15">
         <f>Rotor!AB21</f>
         <v>12.632134847492674</v>
       </c>
@@ -22693,18 +23480,18 @@
         <v>1.2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D84" si="3">_xlfn.NORM.DIST(C21,$F$3,$F$6,FALSE)</f>
+        <f t="shared" ref="D21:D84" si="4">_xlfn.NORM.DIST(C21,$F$3,$F$6,FALSE)</f>
         <v>1.0537975816055431E-17</v>
       </c>
       <c r="H21">
         <v>20</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.876322798150131</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="L21">
@@ -22714,16 +23501,16 @@
         <v>11.311352841372592</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17391304347826086</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="4">
         <f>Rotor!K21</f>
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22">
+      <c r="A22" s="15">
         <f>Rotor!AB22</f>
         <v>10.796100618474911</v>
       </c>
@@ -22731,18 +23518,18 @@
         <v>1.4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0702550984165644E-17</v>
       </c>
       <c r="H22">
         <v>21</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.995987020799303</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="L22">
@@ -22752,16 +23539,16 @@
         <v>11.398152555228792</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18260869565217391</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="4">
         <f>Rotor!K22</f>
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23">
+      <c r="A23" s="15">
         <f>Rotor!AB23</f>
         <v>11.902930408401772</v>
       </c>
@@ -22769,18 +23556,18 @@
         <v>1.6</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5340553871532848E-16</v>
       </c>
       <c r="H23">
         <v>22</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.121849498412244</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="L23">
@@ -22790,16 +23577,16 @@
         <v>11.41944382242516</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19130434782608696</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="4">
         <f>Rotor!K23</f>
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24">
+      <c r="A24" s="15">
         <f>Rotor!AB24</f>
         <v>13.231475534975724</v>
       </c>
@@ -22807,18 +23594,18 @@
         <v>1.8</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6417706998071005E-16</v>
       </c>
       <c r="H24">
         <v>23</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.255967409131388</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="L24">
@@ -22828,16 +23615,16 @@
         <v>11.428975789513009</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="4">
         <f>Rotor!K24</f>
         <v>11.233828481517104</v>
       </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25">
+      <c r="A25" s="15">
         <f>Rotor!AB25</f>
         <v>11.791959985171637</v>
       </c>
@@ -22845,18 +23632,18 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.024625962460896E-15</v>
       </c>
       <c r="H25">
         <v>24</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.401225291032551</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="L25">
@@ -22866,16 +23653,16 @@
         <v>11.433273910630117</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20869565217391303</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="4">
         <f>Rotor!K25</f>
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26">
+      <c r="A26" s="15">
         <f>Rotor!AB26</f>
         <v>11.783203556823546</v>
       </c>
@@ -22883,18 +23670,18 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0897211174326476E-15</v>
       </c>
       <c r="H26">
         <v>25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.5619307739838</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="L26">
@@ -22904,16 +23691,16 @@
         <v>11.433273910630117</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="4">
         <f>Rotor!K26</f>
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27">
+      <c r="A27" s="15">
         <f>Rotor!AB27</f>
         <v>12.136672119052642</v>
       </c>
@@ -22921,18 +23708,18 @@
         <v>2.4</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4225261968903443E-14</v>
       </c>
       <c r="H27">
         <v>26</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.745055402029241</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="L27">
@@ -22942,16 +23729,16 @@
         <v>11.466465117842951</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.22608695652173913</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="4">
         <f>Rotor!K27</f>
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28">
+      <c r="A28" s="15">
         <f>Rotor!AB28</f>
         <v>11.151619123704336</v>
       </c>
@@ -22959,18 +23746,18 @@
         <v>2.6</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.077236367720445E-14</v>
       </c>
       <c r="H28">
         <v>27</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.963220756730029</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="L28">
@@ -22980,16 +23767,16 @@
         <v>11.508451376844492</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23478260869565218</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="4">
         <f>Rotor!K28</f>
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29">
+      <c r="A29" s="15">
         <f>Rotor!AB29</f>
         <v>14.184682072084099</v>
       </c>
@@ -22997,18 +23784,18 @@
         <v>2.8</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6279196458351656E-13</v>
       </c>
       <c r="H29">
         <v>28</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.243668176330372</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="L29">
@@ -23018,16 +23805,16 @@
         <v>11.526135259162899</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24347826086956523</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="4">
         <f>Rotor!K29</f>
         <v>13.003629045663764</v>
       </c>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30">
+      <c r="A30" s="15">
         <f>Rotor!AB30</f>
         <v>14.022877361570542</v>
       </c>
@@ -23035,18 +23822,18 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3428868009735968E-13</v>
       </c>
       <c r="H30">
         <v>29</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.668845075744239</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96666666666666667</v>
       </c>
       <c r="L30">
@@ -23056,10 +23843,10 @@
         <v>11.58085505754164</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25217391304347825</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="4">
         <f>Rotor!K30</f>
         <v>13.003629045663764</v>
       </c>
@@ -23071,7 +23858,7 @@
       </c>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31">
+      <c r="A31" s="15">
         <f>Rotor!AB31</f>
         <v>11.599966460139674</v>
       </c>
@@ -23079,7 +23866,7 @@
         <v>3.2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5844944272331402E-12</v>
       </c>
       <c r="L31">
@@ -23089,10 +23876,10 @@
         <v>11.599966460139674</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="4">
         <f>Rotor!K31</f>
         <v>12.926293791844822</v>
       </c>
@@ -23104,7 +23891,7 @@
       </c>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32">
+      <c r="A32" s="15">
         <f>Rotor!AB32</f>
         <v>12.070043508321357</v>
       </c>
@@ -23112,7 +23899,7 @@
         <v>3.4</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8124963760863749E-12</v>
       </c>
       <c r="L32">
@@ -23122,16 +23909,16 @@
         <v>11.660727905678728</v>
       </c>
       <c r="N32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.26956521739130435</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="4">
         <f>Rotor!K32</f>
         <v>12.926293400181226</v>
       </c>
     </row>
     <row r="33" spans="1:25">
-      <c r="A33">
+      <c r="A33" s="15">
         <f>Rotor!AB33</f>
         <v>12.938906348232667</v>
       </c>
@@ -23139,7 +23926,7 @@
         <v>3.6</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3044062130117796E-11</v>
       </c>
       <c r="L33">
@@ -23149,16 +23936,16 @@
         <v>11.696404259461849</v>
       </c>
       <c r="N33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27826086956521739</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="4">
         <f>Rotor!K33</f>
         <v>13.060073215386453</v>
       </c>
     </row>
     <row r="34" spans="1:25">
-      <c r="A34">
+      <c r="A34" s="15">
         <f>Rotor!AB34</f>
         <v>12.990246175264126</v>
       </c>
@@ -23166,7 +23953,7 @@
         <v>3.8</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6325911301910717E-11</v>
       </c>
       <c r="L34">
@@ -23176,16 +23963,16 @@
         <v>11.71254827220562</v>
       </c>
       <c r="N34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28695652173913044</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="4">
         <f>Rotor!K34</f>
         <v>13.060073215386453</v>
       </c>
     </row>
     <row r="35" spans="1:25">
-      <c r="A35">
+      <c r="A35" s="15">
         <f>Rotor!AB35</f>
         <v>11.71254827220562</v>
       </c>
@@ -23193,7 +23980,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8627835490503053E-10</v>
       </c>
       <c r="L35">
@@ -23203,16 +23990,16 @@
         <v>11.724029063968283</v>
       </c>
       <c r="N35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29565217391304349</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="4">
         <f>Rotor!K35</f>
         <v>12.926293718407884</v>
       </c>
     </row>
     <row r="36" spans="1:25">
-      <c r="A36">
+      <c r="A36" s="15">
         <f>Rotor!AB36</f>
         <v>10.026877185296536</v>
       </c>
@@ -23220,7 +24007,7 @@
         <v>4.2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1050093478073228E-10</v>
       </c>
       <c r="L36">
@@ -23230,16 +24017,16 @@
         <v>11.735139685637307</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="4">
         <f>Rotor!K36</f>
         <v>12.926293400181226</v>
       </c>
     </row>
     <row r="37" spans="1:25">
-      <c r="A37">
+      <c r="A37" s="16">
         <f>Rotor!AC2</f>
         <v>13.931657049512111</v>
       </c>
@@ -23247,7 +24034,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3651666467385527E-9</v>
       </c>
       <c r="L37">
@@ -23257,15 +24044,15 @@
         <v>11.783203556823546</v>
       </c>
       <c r="N37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31304347826086959</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="16">
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="38" spans="1:25">
-      <c r="A38">
+      <c r="A38" s="16">
         <f>Rotor!AC3</f>
         <v>12.841944725309421</v>
       </c>
@@ -23273,7 +24060,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5622941402320456E-9</v>
       </c>
       <c r="L38">
@@ -23283,15 +24070,15 @@
         <v>11.791959985171637</v>
       </c>
       <c r="N38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32173913043478258</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="16">
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="39" spans="1:25">
-      <c r="A39">
+      <c r="A39" s="16">
         <f>Rotor!AC4</f>
         <v>13.060231669417622</v>
       </c>
@@ -23299,7 +24086,7 @@
         <v>4.8</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0704506238487875E-9</v>
       </c>
       <c r="L39">
@@ -23309,15 +24096,15 @@
         <v>11.815518926159218</v>
       </c>
       <c r="N39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33043478260869563</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="16">
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="40" spans="1:25">
-      <c r="A40">
+      <c r="A40" s="16">
         <f>Rotor!AC5</f>
         <v>13.722101225749661</v>
       </c>
@@ -23325,7 +24112,7 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2536316347109836E-8</v>
       </c>
       <c r="L40">
@@ -23335,15 +24122,15 @@
         <v>11.834736723354908</v>
       </c>
       <c r="N40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33913043478260868</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="16">
         <v>11.473987173047661</v>
       </c>
     </row>
     <row r="41" spans="1:25">
-      <c r="A41">
+      <c r="A41" s="16">
         <f>Rotor!AC6</f>
         <v>12.251056683217298</v>
       </c>
@@ -23351,7 +24138,7 @@
         <v>5.2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4637645600315932E-8</v>
       </c>
       <c r="L41">
@@ -23361,15 +24148,15 @@
         <v>11.839481380693648</v>
       </c>
       <c r="N41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34782608695652173</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="16">
         <v>13.348884605174961</v>
       </c>
     </row>
     <row r="42" spans="1:25">
-      <c r="A42">
+      <c r="A42" s="16">
         <f>Rotor!AC7</f>
         <v>11.90365852096083</v>
       </c>
@@ -23377,7 +24164,7 @@
         <v>5.4</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2925757476580643E-7</v>
       </c>
       <c r="L42">
@@ -23387,19 +24174,20 @@
         <v>11.868587786403076</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35652173913043478</v>
       </c>
-      <c r="Y42">
+      <c r="Y42" s="16">
         <v>13.348884605174961</v>
       </c>
     </row>
     <row r="43" spans="1:25">
+      <c r="A43" s="16"/>
       <c r="C43">
         <v>5.6</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9838364099719503E-7</v>
       </c>
       <c r="L43">
@@ -23409,19 +24197,20 @@
         <v>11.902930408401772</v>
       </c>
       <c r="N43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36521739130434783</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="16">
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="44" spans="1:25">
+      <c r="A44" s="16"/>
       <c r="C44">
         <v>5.8</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7212336778938023E-7</v>
       </c>
       <c r="L44">
@@ -23431,19 +24220,20 @@
         <v>11.90365852096083</v>
       </c>
       <c r="N44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.37391304347826088</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="16">
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="45" spans="1:25">
+      <c r="A45" s="16"/>
       <c r="C45">
         <v>6</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4773315077016191E-6</v>
       </c>
       <c r="L45">
@@ -23453,19 +24243,20 @@
         <v>11.93479563210626</v>
       </c>
       <c r="N45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38260869565217392</v>
       </c>
-      <c r="Y45">
+      <c r="Y45" s="16">
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="46" spans="1:25">
+      <c r="A46" s="16"/>
       <c r="C46">
         <v>6.2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1685597824804257E-6</v>
       </c>
       <c r="L46">
@@ -23475,15 +24266,15 @@
         <v>12.042227920318329</v>
       </c>
       <c r="N46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39130434782608697</v>
       </c>
-      <c r="Y46">
+      <c r="Y46" s="16">
         <v>15.40238774763853</v>
       </c>
     </row>
     <row r="47" spans="1:25">
-      <c r="A47">
+      <c r="A47" s="16">
         <f>Rotor!AC12</f>
         <v>10.964968826618158</v>
       </c>
@@ -23491,7 +24282,7 @@
         <v>6.4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6313329001740516E-6</v>
       </c>
       <c r="L47">
@@ -23501,15 +24292,15 @@
         <v>12.070043508321357</v>
       </c>
       <c r="N47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="16">
         <v>14.482093246661224</v>
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48">
+      <c r="A48" s="16">
         <f>Rotor!AC13</f>
         <v>10.964968826618158</v>
       </c>
@@ -23517,7 +24308,7 @@
         <v>6.6</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3542371869821681E-5</v>
       </c>
       <c r="L48">
@@ -23527,15 +24318,15 @@
         <v>12.074818667353316</v>
       </c>
       <c r="N48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40869565217391307</v>
       </c>
-      <c r="Y48">
+      <c r="Y48" s="16">
         <v>14.482093246661224</v>
       </c>
     </row>
     <row r="49" spans="1:25">
-      <c r="A49">
+      <c r="A49" s="16">
         <f>Rotor!AC14</f>
         <v>10.662495228225108</v>
       </c>
@@ -23543,7 +24334,7 @@
         <v>6.8</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6986317131161025E-5</v>
       </c>
       <c r="L49">
@@ -23553,15 +24344,15 @@
         <v>12.080409963498036</v>
       </c>
       <c r="N49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41739130434782606</v>
       </c>
-      <c r="Y49">
+      <c r="Y49" s="16">
         <v>10.979477825570713</v>
       </c>
     </row>
     <row r="50" spans="1:25">
-      <c r="A50">
+      <c r="A50" s="16">
         <f>Rotor!AC15</f>
         <v>9.8878651681195091</v>
       </c>
@@ -23569,7 +24360,7 @@
         <v>7</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.247440028923895E-5</v>
       </c>
       <c r="L50">
@@ -23579,15 +24370,15 @@
         <v>12.136672119052642</v>
       </c>
       <c r="N50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42608695652173911</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="16">
         <v>12.187972445717499</v>
       </c>
     </row>
     <row r="51" spans="1:25">
-      <c r="A51">
+      <c r="A51" s="16">
         <f>Rotor!AC16</f>
         <v>9.7031906057283042</v>
       </c>
@@ -23595,7 +24386,7 @@
         <v>7.2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9564915118143316E-5</v>
       </c>
       <c r="L51">
@@ -23605,15 +24396,15 @@
         <v>12.248814908108333</v>
       </c>
       <c r="N51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43478260869565216</v>
       </c>
-      <c r="Y51">
+      <c r="Y51" s="16">
         <v>12.187972445717499</v>
       </c>
     </row>
     <row r="52" spans="1:25">
-      <c r="A52">
+      <c r="A52" s="16">
         <f>Rotor!AC17</f>
         <v>12.801229987579884</v>
       </c>
@@ -23621,7 +24412,7 @@
         <v>7.4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8434024124670958E-4</v>
       </c>
       <c r="L52">
@@ -23631,15 +24422,15 @@
         <v>12.251056683217298</v>
       </c>
       <c r="N52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44347826086956521</v>
       </c>
-      <c r="Y52">
+      <c r="Y52" s="16">
         <v>11.252200283951151</v>
       </c>
     </row>
     <row r="53" spans="1:25">
-      <c r="A53">
+      <c r="A53" s="16">
         <f>Rotor!AC18</f>
         <v>12.902946620397195</v>
       </c>
@@ -23647,7 +24438,7 @@
         <v>7.6</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3303429241279673E-4</v>
       </c>
       <c r="L53">
@@ -23657,15 +24448,15 @@
         <v>12.320030955499167</v>
       </c>
       <c r="N53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45217391304347826</v>
       </c>
-      <c r="Y53">
+      <c r="Y53" s="16">
         <v>11.252200283951151</v>
       </c>
     </row>
     <row r="54" spans="1:25">
-      <c r="A54">
+      <c r="A54" s="16">
         <f>Rotor!AC19</f>
         <v>13.149823636944051</v>
       </c>
@@ -23673,7 +24464,7 @@
         <v>7.8</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8710088916037728E-4</v>
       </c>
       <c r="L54">
@@ -23683,15 +24474,15 @@
         <v>12.332079714696855</v>
       </c>
       <c r="N54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46086956521739131</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="16">
         <v>10.717863556640458</v>
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55">
+      <c r="A55" s="16">
         <f>Rotor!AC20</f>
         <v>12.563363299329982</v>
       </c>
@@ -23699,7 +24490,7 @@
         <v>8</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0099305299811198E-3</v>
       </c>
       <c r="L55">
@@ -23709,15 +24500,15 @@
         <v>12.332354073251288</v>
       </c>
       <c r="N55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46956521739130436</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="16">
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="56" spans="1:25">
-      <c r="A56">
+      <c r="A56" s="16">
         <f>Rotor!AC21</f>
         <v>12.48529117742126</v>
       </c>
@@ -23725,7 +24516,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6952167843725524E-3</v>
       </c>
       <c r="L56">
@@ -23735,15 +24526,15 @@
         <v>12.350890388954769</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47826086956521741</v>
       </c>
-      <c r="Y56">
+      <c r="Y56" s="16">
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="57" spans="1:25">
-      <c r="A57">
+      <c r="A57" s="16">
         <f>Rotor!AC22</f>
         <v>10.568076234459925</v>
       </c>
@@ -23751,7 +24542,7 @@
         <v>8.4</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7766041349436194E-3</v>
       </c>
       <c r="L57">
@@ -23761,15 +24552,15 @@
         <v>12.385485669638566</v>
       </c>
       <c r="N57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48695652173913045</v>
       </c>
-      <c r="Y57">
+      <c r="Y57" s="16">
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="58" spans="1:25">
-      <c r="A58">
+      <c r="A58" s="16">
         <f>Rotor!AC23</f>
         <v>12.350890388954769</v>
       </c>
@@ -23777,7 +24568,7 @@
         <v>8.6</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.437697228434909E-3</v>
       </c>
       <c r="L58">
@@ -23787,15 +24578,15 @@
         <v>12.402583563366077</v>
       </c>
       <c r="N58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4956521739130435</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="16">
         <v>13.433871013044671</v>
       </c>
     </row>
     <row r="59" spans="1:25">
-      <c r="A59">
+      <c r="A59" s="16">
         <f>Rotor!AC24</f>
         <v>13.119306539290704</v>
       </c>
@@ -23803,7 +24594,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9208008141946791E-3</v>
       </c>
       <c r="L59">
@@ -23813,15 +24604,15 @@
         <v>12.405542452129644</v>
       </c>
       <c r="N59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5043478260869565</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="16">
         <v>11.233828481517104</v>
       </c>
     </row>
     <row r="60" spans="1:25">
-      <c r="A60">
+      <c r="A60" s="16">
         <f>Rotor!AC25</f>
         <v>11.526135259162899</v>
       </c>
@@ -23829,7 +24620,7 @@
         <v>9</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0531979660677536E-2</v>
       </c>
       <c r="L60">
@@ -23839,15 +24630,15 @@
         <v>12.430691805843484</v>
       </c>
       <c r="N60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5130434782608696</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="16">
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="61" spans="1:25">
-      <c r="A61">
+      <c r="A61" s="16">
         <f>Rotor!AC26</f>
         <v>11.696404259461849</v>
       </c>
@@ -23855,7 +24646,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5639348345974781E-2</v>
       </c>
       <c r="L61">
@@ -23865,15 +24656,15 @@
         <v>12.48529117742126</v>
       </c>
       <c r="N61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="16">
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="62" spans="1:25">
-      <c r="A62">
+      <c r="A62" s="16">
         <f>Rotor!AC27</f>
         <v>11.839481380693648</v>
       </c>
@@ -23881,7 +24672,7 @@
         <v>9.4</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2661167151093623E-2</v>
       </c>
       <c r="L62">
@@ -23891,15 +24682,15 @@
         <v>12.532728891615246</v>
       </c>
       <c r="N62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5304347826086957</v>
       </c>
-      <c r="Y62">
+      <c r="Y62" s="16">
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="63" spans="1:25">
-      <c r="A63">
+      <c r="A63" s="16">
         <f>Rotor!AC28</f>
         <v>11.735139685637307</v>
       </c>
@@ -23907,7 +24698,7 @@
         <v>9.6</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2040617327508875E-2</v>
       </c>
       <c r="L63">
@@ -23917,15 +24708,15 @@
         <v>12.546438276344926</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53913043478260869</v>
       </c>
-      <c r="Y63">
+      <c r="Y63" s="16">
         <v>12.550137507823191</v>
       </c>
     </row>
     <row r="64" spans="1:25">
-      <c r="A64">
+      <c r="A64" s="16">
         <f>Rotor!AC29</f>
         <v>14.165634680663207</v>
       </c>
@@ -23933,7 +24724,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4205311541585225E-2</v>
       </c>
       <c r="L64">
@@ -23943,15 +24734,15 @@
         <v>12.546682053892912</v>
       </c>
       <c r="N64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54782608695652169</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="16">
         <v>13.003629045663764</v>
       </c>
     </row>
     <row r="65" spans="1:25">
-      <c r="A65">
+      <c r="A65" s="16">
         <f>Rotor!AC30</f>
         <v>13.943600889417278</v>
       </c>
@@ -23959,7 +24750,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9511790381978687E-2</v>
       </c>
       <c r="L65">
@@ -23969,15 +24760,15 @@
         <v>12.563363299329982</v>
       </c>
       <c r="N65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55652173913043479</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="16">
         <v>13.003629045663764</v>
       </c>
     </row>
     <row r="66" spans="1:25">
-      <c r="A66">
+      <c r="A66" s="16">
         <f>Rotor!AC31</f>
         <v>12.332079714696855</v>
       </c>
@@ -23985,7 +24776,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8178360065860902E-2</v>
       </c>
       <c r="L66">
@@ -23995,15 +24786,15 @@
         <v>12.597673820366589</v>
       </c>
       <c r="N66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56521739130434778</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="16">
         <v>12.926293791844822</v>
       </c>
     </row>
     <row r="67" spans="1:25">
-      <c r="A67">
+      <c r="A67" s="16">
         <f>Rotor!AC32</f>
         <v>12.402583563366077</v>
       </c>
@@ -24011,7 +24802,7 @@
         <v>10.4</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.10021323361636816</v>
       </c>
       <c r="L67">
@@ -24021,15 +24812,15 @@
         <v>12.603452870485633</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N116" si="4">L67/115</f>
+        <f t="shared" ref="N67:N116" si="5">L67/115</f>
         <v>0.57391304347826089</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="16">
         <v>12.926293400181226</v>
       </c>
     </row>
     <row r="68" spans="1:25">
-      <c r="A68">
+      <c r="A68" s="16">
         <f>Rotor!AC33</f>
         <v>13.21497773479159</v>
       </c>
@@ -24037,7 +24828,7 @@
         <v>10.6</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12534833668928266</v>
       </c>
       <c r="L68">
@@ -24047,15 +24838,15 @@
         <v>12.632134847492674</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58260869565217388</v>
       </c>
-      <c r="Y68">
+      <c r="Y68" s="16">
         <v>13.060073215386453</v>
       </c>
     </row>
     <row r="69" spans="1:25">
-      <c r="A69">
+      <c r="A69" s="16">
         <f>Rotor!AC34</f>
         <v>13.541500589033223</v>
       </c>
@@ -24063,7 +24854,7 @@
         <v>10.8</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15299141266735994</v>
       </c>
       <c r="L69">
@@ -24073,15 +24864,15 @@
         <v>12.657128720961957</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.59130434782608698</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="16">
         <v>13.060073215386453</v>
       </c>
     </row>
     <row r="70" spans="1:25">
-      <c r="A70">
+      <c r="A70" s="16">
         <f>Rotor!AC35</f>
         <v>13.105102322685147</v>
       </c>
@@ -24089,7 +24880,7 @@
         <v>11</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1822092891481405</v>
       </c>
       <c r="L70">
@@ -24099,15 +24890,15 @@
         <v>12.750425074210408</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="Y70">
+      <c r="Y70" s="16">
         <v>12.926293718407884</v>
       </c>
     </row>
     <row r="71" spans="1:25">
-      <c r="A71">
+      <c r="A71" s="16">
         <f>Rotor!AC36</f>
         <v>12.532728891615246</v>
       </c>
@@ -24115,7 +24906,7 @@
         <v>11.2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21175269805111588</v>
       </c>
       <c r="L71">
@@ -24125,10 +24916,10 @@
         <v>12.796676716757879</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60869565217391308</v>
       </c>
-      <c r="Y71">
+      <c r="Y71" s="16">
         <v>12.926293400181226</v>
       </c>
     </row>
@@ -24141,7 +24932,7 @@
         <v>11.4</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24012776083892226</v>
       </c>
       <c r="L72">
@@ -24151,7 +24942,7 @@
         <v>12.801229987579884</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.61739130434782608</v>
       </c>
       <c r="Y72">
@@ -24167,7 +24958,7 @@
         <v>11.6</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26571175594445318</v>
       </c>
       <c r="L73">
@@ -24177,7 +24968,7 @@
         <v>12.841944725309421</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.62608695652173918</v>
       </c>
       <c r="Y73">
@@ -24193,7 +24984,7 @@
         <v>11.8</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28690237768163029</v>
       </c>
       <c r="L74">
@@ -24203,7 +24994,7 @@
         <v>12.849262452816166</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63478260869565217</v>
       </c>
       <c r="Y74">
@@ -24219,7 +25010,7 @@
         <v>12</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30228215188206808</v>
       </c>
       <c r="L75">
@@ -24229,7 +25020,7 @@
         <v>12.861797323946252</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64347826086956517</v>
       </c>
       <c r="Y75">
@@ -24245,7 +25036,7 @@
         <v>12.2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31077483368745018</v>
       </c>
       <c r="L76">
@@ -24255,7 +25046,7 @@
         <v>12.902946620397195</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="Y76">
@@ -24271,7 +25062,7 @@
         <v>12.4</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.31176988297753716</v>
       </c>
       <c r="L77">
@@ -24281,7 +25072,7 @@
         <v>12.91413764687017</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66086956521739126</v>
       </c>
       <c r="Y77">
@@ -24293,7 +25084,7 @@
         <v>12.6</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30519502996621994</v>
       </c>
       <c r="L78">
@@ -24303,7 +25094,7 @@
         <v>12.926695314581632</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66956521739130437</v>
       </c>
       <c r="Y78">
@@ -24315,7 +25106,7 @@
         <v>12.8</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29152495278394741</v>
       </c>
       <c r="L79">
@@ -24325,7 +25116,7 @@
         <v>12.938328306322731</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67826086956521736</v>
       </c>
       <c r="Y79">
@@ -24337,7 +25128,7 @@
         <v>13</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2717246200515816</v>
       </c>
       <c r="L80">
@@ -24347,7 +25138,7 @@
         <v>12.938906348232667</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68695652173913047</v>
       </c>
       <c r="Y80">
@@ -24359,7 +25150,7 @@
         <v>13.2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24713669038534691</v>
       </c>
       <c r="L81">
@@ -24369,7 +25160,7 @@
         <v>12.966788461602857</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.69565217391304346</v>
       </c>
       <c r="Y81">
@@ -24385,7 +25176,7 @@
         <v>13.4</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.21933121394143013</v>
       </c>
       <c r="L82">
@@ -24395,7 +25186,7 @@
         <v>12.975657162524126</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70434782608695656</v>
       </c>
       <c r="Y82">
@@ -24411,7 +25202,7 @@
         <v>13.6</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18994096409183475</v>
       </c>
       <c r="L83">
@@ -24421,7 +25212,7 @@
         <v>12.990246175264126</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71304347826086956</v>
       </c>
       <c r="Y83">
@@ -24437,7 +25228,7 @@
         <v>13.8</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16050620021640283</v>
       </c>
       <c r="L84">
@@ -24447,7 +25238,7 @@
         <v>13.016834073074579</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72173913043478266</v>
       </c>
       <c r="Y84">
@@ -24463,7 +25254,7 @@
         <v>14</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85:D115" si="5">_xlfn.NORM.DIST(C85,$F$3,$F$6,FALSE)</f>
+        <f t="shared" ref="D85:D115" si="6">_xlfn.NORM.DIST(C85,$F$3,$F$6,FALSE)</f>
         <v>0.13234878803775507</v>
       </c>
       <c r="L85">
@@ -24473,7 +25264,7 @@
         <v>13.019079182585894</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73043478260869565</v>
       </c>
       <c r="Y85">
@@ -24489,7 +25280,7 @@
         <v>14.2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10648859661126722</v>
       </c>
       <c r="L86">
@@ -24499,7 +25290,7 @@
         <v>13.02973112196263</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73913043478260865</v>
       </c>
       <c r="Y86">
@@ -24515,7 +25306,7 @@
         <v>14.4</v>
       </c>
       <c r="D87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3606726246569396E-2</v>
       </c>
       <c r="L87">
@@ -24525,7 +25316,7 @@
         <v>13.060231669417622</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.74782608695652175</v>
       </c>
       <c r="Y87">
@@ -24541,7 +25332,7 @@
         <v>14.6</v>
       </c>
       <c r="D88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4052238589930435E-2</v>
       </c>
       <c r="L88">
@@ -24551,7 +25342,7 @@
         <v>13.067357401190694</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.75652173913043474</v>
       </c>
       <c r="Y88">
@@ -24567,7 +25358,7 @@
         <v>14.8</v>
       </c>
       <c r="D89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7883114062799867E-2</v>
       </c>
       <c r="L89">
@@ -24577,7 +25368,7 @@
         <v>13.096095315970574</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76521739130434785</v>
       </c>
       <c r="Y89">
@@ -24593,7 +25384,7 @@
         <v>15</v>
       </c>
       <c r="D90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4928942782291528E-2</v>
       </c>
       <c r="L90">
@@ -24603,7 +25394,7 @@
         <v>13.105102322685147</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77391304347826084</v>
       </c>
       <c r="Y90">
@@ -24619,7 +25410,7 @@
         <v>15.2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4862424333430767E-2</v>
       </c>
       <c r="L91">
@@ -24629,7 +25420,7 @@
         <v>13.119306539290704</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="Y91">
@@ -24645,7 +25436,7 @@
         <v>15.4</v>
       </c>
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7268574469090001E-2</v>
       </c>
       <c r="L92">
@@ -24655,7 +25446,7 @@
         <v>13.149823636944051</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.79130434782608694</v>
       </c>
       <c r="Y92">
@@ -24671,7 +25462,7 @@
         <v>15.6</v>
       </c>
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1703735030429553E-2</v>
       </c>
       <c r="L93">
@@ -24681,7 +25472,7 @@
         <v>13.184693236685222</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="Y93">
@@ -24697,7 +25488,7 @@
         <v>15.8</v>
       </c>
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7401157209595331E-3</v>
       </c>
       <c r="L94">
@@ -24707,7 +25498,7 @@
         <v>13.187215261286315</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80869565217391304</v>
       </c>
       <c r="Y94">
@@ -24723,7 +25514,7 @@
         <v>16</v>
       </c>
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.994883996202573E-3</v>
       </c>
       <c r="L95">
@@ -24733,7 +25524,7 @@
         <v>13.214504033730559</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81739130434782614</v>
       </c>
       <c r="Y95">
@@ -24749,7 +25540,7 @@
         <v>16.2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.145272941436275E-3</v>
       </c>
       <c r="L96">
@@ -24759,7 +25550,7 @@
         <v>13.21497773479159</v>
       </c>
       <c r="N96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.82608695652173914</v>
       </c>
       <c r="Y96">
@@ -24775,7 +25566,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9326190266259558E-3</v>
       </c>
       <c r="L97">
@@ -24785,7 +25576,7 @@
         <v>13.231475534975724</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83478260869565213</v>
       </c>
       <c r="Y97">
@@ -24801,7 +25592,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="D98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1587483872296694E-3</v>
       </c>
       <c r="L98">
@@ -24811,7 +25602,7 @@
         <v>13.234212255405712</v>
       </c>
       <c r="N98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84347826086956523</v>
       </c>
       <c r="Y98">
@@ -24827,7 +25618,7 @@
         <v>16.8</v>
       </c>
       <c r="D99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.7793337391601266E-4</v>
       </c>
       <c r="L99">
@@ -24837,7 +25628,7 @@
         <v>13.25574196243668</v>
       </c>
       <c r="N99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.85217391304347823</v>
       </c>
       <c r="Y99">
@@ -24853,7 +25644,7 @@
         <v>17</v>
       </c>
       <c r="D100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8702575417951467E-4</v>
       </c>
       <c r="L100">
@@ -24863,7 +25654,7 @@
         <v>13.340161128207022</v>
       </c>
       <c r="N100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86086956521739133</v>
       </c>
       <c r="Y100">
@@ -24879,7 +25670,7 @@
         <v>17.2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1559947385481294E-4</v>
       </c>
       <c r="L101">
@@ -24889,7 +25680,7 @@
         <v>13.496743801211975</v>
       </c>
       <c r="N101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86956521739130432</v>
       </c>
       <c r="Y101">
@@ -24905,7 +25696,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="D102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.17195384300765E-4</v>
       </c>
       <c r="L102">
@@ -24915,7 +25706,7 @@
         <v>13.541500589033223</v>
       </c>
       <c r="N102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.87826086956521743</v>
       </c>
       <c r="Y102">
@@ -24931,7 +25722,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="D103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2162475065417796E-5</v>
       </c>
       <c r="L103">
@@ -24941,7 +25732,7 @@
         <v>13.600542869816973</v>
       </c>
       <c r="N103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88695652173913042</v>
       </c>
       <c r="Y103">
@@ -24957,7 +25748,7 @@
         <v>17.8</v>
       </c>
       <c r="D104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2173704471814602E-5</v>
       </c>
       <c r="L104">
@@ -24967,7 +25758,7 @@
         <v>13.693189980054351</v>
       </c>
       <c r="N104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89565217391304353</v>
       </c>
       <c r="Y104">
@@ -24983,7 +25774,7 @@
         <v>18</v>
       </c>
       <c r="D105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.624908155278196E-5</v>
       </c>
       <c r="L105">
@@ -24993,7 +25784,7 @@
         <v>13.722101225749661</v>
       </c>
       <c r="N105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90434782608695652</v>
       </c>
       <c r="Y105">
@@ -25009,7 +25800,7 @@
         <v>18.2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0077692136594768E-6</v>
       </c>
       <c r="L106">
@@ -25019,7 +25810,7 @@
         <v>13.758020756114458</v>
       </c>
       <c r="N106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91304347826086951</v>
       </c>
       <c r="Y106">
@@ -25027,7 +25818,7 @@
       </c>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107">
+      <c r="A107" s="17">
         <f>axel!AA2</f>
         <v>11.815518926159218</v>
       </c>
@@ -25035,7 +25826,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="D107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8507848780084898E-6</v>
       </c>
       <c r="L107">
@@ -25045,15 +25836,15 @@
         <v>13.878532299826178</v>
       </c>
       <c r="N107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.92173913043478262</v>
       </c>
-      <c r="Y107">
+      <c r="Y107" s="17">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108">
+      <c r="A108" s="17">
         <f>axel!AA3</f>
         <v>13.25574196243668</v>
       </c>
@@ -25061,7 +25852,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="D108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8069325733887527E-6</v>
       </c>
       <c r="L108">
@@ -25071,15 +25862,15 @@
         <v>13.931657049512111</v>
       </c>
       <c r="N108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93043478260869561</v>
       </c>
-      <c r="Y108">
+      <c r="Y108" s="17">
         <v>18.232616345469136</v>
       </c>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109">
+      <c r="A109" s="17">
         <f>axel!AA4</f>
         <v>13.096095315970574</v>
       </c>
@@ -25087,7 +25878,7 @@
         <v>18.8</v>
       </c>
       <c r="D109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.2735065669827073E-7</v>
       </c>
       <c r="L109">
@@ -25097,15 +25888,15 @@
         <v>13.942552407277457</v>
       </c>
       <c r="N109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93913043478260871</v>
       </c>
-      <c r="Y109">
+      <c r="Y109" s="17">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110">
+      <c r="A110" s="17">
         <f>axel!AA5</f>
         <v>13.942552407277457</v>
       </c>
@@ -25113,7 +25904,7 @@
         <v>19</v>
       </c>
       <c r="D110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6965132283495437E-7</v>
       </c>
       <c r="L110">
@@ -25123,15 +25914,15 @@
         <v>13.943600889417278</v>
       </c>
       <c r="N110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94782608695652171</v>
       </c>
-      <c r="Y110">
+      <c r="Y110" s="17">
         <v>16.907537725958434</v>
       </c>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111">
+      <c r="A111" s="17">
         <f>axel!AA6</f>
         <v>12.975657162524126</v>
       </c>
@@ -25139,7 +25930,7 @@
         <v>19.2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6115726679242267E-7</v>
       </c>
       <c r="L111">
@@ -25149,15 +25940,15 @@
         <v>14.022877361570542</v>
       </c>
       <c r="N111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95652173913043481</v>
       </c>
-      <c r="Y111">
+      <c r="Y111" s="17">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112">
+      <c r="A112" s="17">
         <f>axel!AA7</f>
         <v>12.248814908108333</v>
       </c>
@@ -25165,7 +25956,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="D112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8558688550072439E-8</v>
       </c>
       <c r="L112">
@@ -25175,15 +25966,15 @@
         <v>14.130746885508621</v>
       </c>
       <c r="N112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9652173913043478</v>
       </c>
-      <c r="Y112">
+      <c r="Y112" s="17">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113">
+      <c r="A113" s="17">
         <f>axel!AA8</f>
         <v>13.214504033730559</v>
       </c>
@@ -25191,7 +25982,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="D113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8459685035033412E-8</v>
       </c>
       <c r="L113">
@@ -25201,15 +25992,15 @@
         <v>14.165634680663207</v>
       </c>
       <c r="N113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97391304347826091</v>
       </c>
-      <c r="Y113">
+      <c r="Y113" s="17">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114">
+      <c r="A114" s="17">
         <f>axel!AA9</f>
         <v>11.102604896375318</v>
       </c>
@@ -25217,7 +26008,7 @@
         <v>19.8</v>
       </c>
       <c r="D114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1527965209326216E-8</v>
       </c>
       <c r="L114">
@@ -25227,15 +26018,15 @@
         <v>14.184682072084099</v>
       </c>
       <c r="N114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9826086956521739</v>
       </c>
-      <c r="Y114">
+      <c r="Y114" s="17">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115">
+      <c r="A115" s="17">
         <f>axel!AA10</f>
         <v>16.996330648293892</v>
       </c>
@@ -25243,7 +26034,7 @@
         <v>20</v>
       </c>
       <c r="D115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5564877245788343E-9</v>
       </c>
       <c r="L115">
@@ -25253,15 +26044,15 @@
         <v>16.712184491340331</v>
       </c>
       <c r="N115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99130434782608701</v>
       </c>
-      <c r="Y115">
+      <c r="Y115" s="17">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116">
+      <c r="A116" s="17">
         <f>axel!AA11</f>
         <v>11.428975789513009</v>
       </c>
@@ -25272,118 +26063,118 @@
         <v>16.996330648293892</v>
       </c>
       <c r="N116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y116">
+      <c r="Y116" s="17">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117">
+      <c r="A117" s="17">
         <f>axel!AA12</f>
         <v>12.332354073251288</v>
       </c>
-      <c r="Y117">
+      <c r="Y117" s="17">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118">
+      <c r="A118" s="13">
         <f>axel!AB2</f>
         <v>10.680948334721215</v>
       </c>
-      <c r="Y118">
+      <c r="Y118" s="13">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119">
+      <c r="A119" s="13">
         <f>axel!AB3</f>
         <v>12.938328306322731</v>
       </c>
-      <c r="Y119">
+      <c r="Y119" s="13">
         <v>18.232616345469136</v>
       </c>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120">
+      <c r="A120" s="13">
         <f>axel!AB4</f>
         <v>12.657128720961957</v>
       </c>
-      <c r="Y120">
+      <c r="Y120" s="13">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121">
+      <c r="A121" s="13">
         <f>axel!AB5</f>
         <v>13.693189980054351</v>
       </c>
-      <c r="Y121">
+      <c r="Y121" s="13">
         <v>16.907537725958434</v>
       </c>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122">
+      <c r="A122" s="13">
         <f>axel!AB6</f>
         <v>13.02973112196263</v>
       </c>
-      <c r="Y122">
+      <c r="Y122" s="13">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123">
+      <c r="A123" s="13">
         <f>axel!AB7</f>
         <v>11.660727905678728</v>
       </c>
-      <c r="Y123">
+      <c r="Y123" s="13">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124">
+      <c r="A124" s="13">
         <f>axel!AB8</f>
         <v>13.019079182585894</v>
       </c>
-      <c r="Y124">
+      <c r="Y124" s="13">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125">
+      <c r="A125" s="13">
         <f>axel!AB9</f>
         <v>11.58085505754164</v>
       </c>
-      <c r="Y125">
+      <c r="Y125" s="13">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126">
+      <c r="A126" s="13">
         <f>axel!AB10</f>
         <v>16.712184491340331</v>
       </c>
-      <c r="Y126">
+      <c r="Y126" s="13">
         <v>15.904714703677227</v>
       </c>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127">
+      <c r="A127" s="13">
         <f>axel!AB11</f>
         <v>12.546438276344926</v>
       </c>
-      <c r="Y127">
+      <c r="Y127" s="13">
         <v>14.578723060639637</v>
       </c>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128">
+      <c r="A128" s="13">
         <f>axel!AB12</f>
         <v>12.597673820366589</v>
       </c>
-      <c r="Y128">
+      <c r="Y128" s="13">
         <v>14.578723060639637</v>
       </c>
     </row>
@@ -25392,7 +26183,6 @@
     <sortCondition ref="M2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
